--- a/raw_data/20200818_saline/20200818_Sensor2_Test_55.xlsx
+++ b/raw_data/20200818_saline/20200818_Sensor2_Test_55.xlsx
@@ -1,658 +1,1074 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="true"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <workbookPr date1904="1" defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox (GaTech)\Lab files\code\Impedance_fit\raw_data\20200818_saline\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69FCF29D-AFD3-4DED-B955-30825C50B8B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="2240" yWindow="2240" windowWidth="28800" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <si>
-    <t>Inf</t>
-  </si>
-  <si>
-    <t>-Inf</t>
-  </si>
-  <si>
-    <t>#NV</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
+  <si>
+    <t>Untitled</t>
+  </si>
+  <si>
+    <t>Untitled 1</t>
+  </si>
+  <si>
+    <t>Untitled 2</t>
+  </si>
+  <si>
+    <t>Untitled 3</t>
+  </si>
+  <si>
+    <t>Untitled 4</t>
+  </si>
+  <si>
+    <t>Untitled 5</t>
+  </si>
+  <si>
+    <t>Untitled 6</t>
+  </si>
+  <si>
+    <t>Untitled 7</t>
+  </si>
+  <si>
+    <t>Untitled 8</t>
+  </si>
+  <si>
+    <t>Untitled 9</t>
+  </si>
+  <si>
+    <t>Untitled 10</t>
+  </si>
+  <si>
+    <t>Untitled 11</t>
+  </si>
+  <si>
+    <t>Untitled 12</t>
+  </si>
+  <si>
+    <t>Untitled 13</t>
+  </si>
+  <si>
+    <t>Untitled 14</t>
+  </si>
+  <si>
+    <t>Untitled 15</t>
+  </si>
+  <si>
+    <t>Untitled 16</t>
+  </si>
+  <si>
+    <t>Untitled 17</t>
+  </si>
+  <si>
+    <t>Untitled 18</t>
+  </si>
+  <si>
+    <t>Untitled 19</t>
+  </si>
+  <si>
+    <t>Untitled 20</t>
+  </si>
+  <si>
+    <t>Untitled 21</t>
+  </si>
+  <si>
+    <t>Untitled 22</t>
+  </si>
+  <si>
+    <t>Untitled 23</t>
+  </si>
+  <si>
+    <t>Untitled 24</t>
+  </si>
+  <si>
+    <t>Untitled 25</t>
+  </si>
+  <si>
+    <t>Untitled 26</t>
+  </si>
+  <si>
+    <t>Untitled 27</t>
+  </si>
+  <si>
+    <t>Untitled 28</t>
+  </si>
+  <si>
+    <t>Untitled 29</t>
+  </si>
+  <si>
+    <t>Untitled 30</t>
+  </si>
+  <si>
+    <t>Untitled 31</t>
+  </si>
+  <si>
+    <t>Untitled 32</t>
+  </si>
+  <si>
+    <t>Untitled 33</t>
+  </si>
+  <si>
+    <t>Untitled 34</t>
+  </si>
+  <si>
+    <t>Untitled 35</t>
+  </si>
+  <si>
+    <t>Untitled 36</t>
+  </si>
+  <si>
+    <t>Untitled 37</t>
+  </si>
+  <si>
+    <t>Untitled 38</t>
+  </si>
+  <si>
+    <t>Untitled 39</t>
+  </si>
+  <si>
+    <t>Untitled 40</t>
+  </si>
+  <si>
+    <t>Untitled 41</t>
+  </si>
+  <si>
+    <t>Untitled 42</t>
+  </si>
+  <si>
+    <t>Untitled 43</t>
+  </si>
+  <si>
+    <t>Untitled 44</t>
+  </si>
+  <si>
+    <t>Untitled 45</t>
+  </si>
+  <si>
+    <t>Untitled 46</t>
+  </si>
+  <si>
+    <t>Untitled 47</t>
+  </si>
+  <si>
+    <t>Untitled 48</t>
+  </si>
+  <si>
+    <t>Untitled 49</t>
+  </si>
+  <si>
+    <t>Untitled 50</t>
+  </si>
+  <si>
+    <t>Untitled 51</t>
+  </si>
+  <si>
+    <t>Untitled 52</t>
+  </si>
+  <si>
+    <t>Untitled 53</t>
+  </si>
+  <si>
+    <t>Untitled 54</t>
+  </si>
+  <si>
+    <t>Untitled 55</t>
+  </si>
+  <si>
+    <t>Untitled 56</t>
+  </si>
+  <si>
+    <t>Untitled 57</t>
+  </si>
+  <si>
+    <t>Untitled 58</t>
+  </si>
+  <si>
+    <t>Untitled 59</t>
+  </si>
+  <si>
+    <t>Untitled 60</t>
+  </si>
+  <si>
+    <t>Untitled 61</t>
+  </si>
+  <si>
+    <t>Untitled 62</t>
+  </si>
+  <si>
+    <t>Untitled 63</t>
+  </si>
+  <si>
+    <t>Untitled 64</t>
+  </si>
+  <si>
+    <t>Untitled 65</t>
+  </si>
+  <si>
+    <t>Untitled 66</t>
+  </si>
+  <si>
+    <t>Untitled 67</t>
+  </si>
+  <si>
+    <t>Untitled 68</t>
+  </si>
+  <si>
+    <t>Untitled 69</t>
+  </si>
+  <si>
+    <t>Untitled 70</t>
+  </si>
+  <si>
+    <t>Untitled 71</t>
+  </si>
+  <si>
+    <t>Untitled 72</t>
+  </si>
+  <si>
+    <t>Untitled 73</t>
+  </si>
+  <si>
+    <t>Untitled 74</t>
+  </si>
+  <si>
+    <t>Untitled 75</t>
+  </si>
+  <si>
+    <t>Untitled 76</t>
+  </si>
+  <si>
+    <t>Untitled 77</t>
+  </si>
+  <si>
+    <t>Untitled 78</t>
+  </si>
+  <si>
+    <t>Untitled 79</t>
+  </si>
+  <si>
+    <t>Untitled 80</t>
+  </si>
+  <si>
+    <t>Untitled 81</t>
+  </si>
+  <si>
+    <t>Untitled 82</t>
+  </si>
+  <si>
+    <t>Untitled 83</t>
+  </si>
+  <si>
+    <t>Untitled 84</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"> </numFmts>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1">
-    <font/>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="1">
-    <fill/>
+  <fills count="2">
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0"/>
-    <xf numFmtId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:CG26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Untitled</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Untitled 1</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Untitled 2</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Untitled 3</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Untitled 4</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Untitled 5</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Untitled 6</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Untitled 7</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>Untitled 8</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>Untitled 9</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>Untitled 10</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>Untitled 11</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>Untitled 12</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>Untitled 13</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>Untitled 14</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>Untitled 15</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>Untitled 16</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>Untitled 17</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>Untitled 18</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>Untitled 19</t>
-        </is>
-      </c>
-      <c r="U1" t="inlineStr">
-        <is>
-          <t>Untitled 20</t>
-        </is>
-      </c>
-      <c r="V1" t="inlineStr">
-        <is>
-          <t>Untitled 21</t>
-        </is>
-      </c>
-      <c r="W1" t="inlineStr">
-        <is>
-          <t>Untitled 22</t>
-        </is>
-      </c>
-      <c r="X1" t="inlineStr">
-        <is>
-          <t>Untitled 23</t>
-        </is>
-      </c>
-      <c r="Y1" t="inlineStr">
-        <is>
-          <t>Untitled 24</t>
-        </is>
-      </c>
-      <c r="Z1" t="inlineStr">
-        <is>
-          <t>Untitled 25</t>
-        </is>
-      </c>
-      <c r="AA1" t="inlineStr">
-        <is>
-          <t>Untitled 26</t>
-        </is>
-      </c>
-      <c r="AB1" t="inlineStr">
-        <is>
-          <t>Untitled 27</t>
-        </is>
-      </c>
-      <c r="AC1" t="inlineStr">
-        <is>
-          <t>Untitled 28</t>
-        </is>
-      </c>
-      <c r="AD1" t="inlineStr">
-        <is>
-          <t>Untitled 29</t>
-        </is>
-      </c>
-      <c r="AE1" t="inlineStr">
-        <is>
-          <t>Untitled 30</t>
-        </is>
-      </c>
-      <c r="AF1" t="inlineStr">
-        <is>
-          <t>Untitled 31</t>
-        </is>
-      </c>
-      <c r="AG1" t="inlineStr">
-        <is>
-          <t>Untitled 32</t>
-        </is>
-      </c>
-      <c r="AH1" t="inlineStr">
-        <is>
-          <t>Untitled 33</t>
-        </is>
-      </c>
-      <c r="AI1" t="inlineStr">
-        <is>
-          <t>Untitled 34</t>
-        </is>
-      </c>
-      <c r="AJ1" t="inlineStr">
-        <is>
-          <t>Untitled 35</t>
-        </is>
-      </c>
-      <c r="AK1" t="inlineStr">
-        <is>
-          <t>Untitled 36</t>
-        </is>
-      </c>
-      <c r="AL1" t="inlineStr">
-        <is>
-          <t>Untitled 37</t>
-        </is>
-      </c>
-      <c r="AM1" t="inlineStr">
-        <is>
-          <t>Untitled 38</t>
-        </is>
-      </c>
-      <c r="AN1" t="inlineStr">
-        <is>
-          <t>Untitled 39</t>
-        </is>
-      </c>
-      <c r="AO1" t="inlineStr">
-        <is>
-          <t>Untitled 40</t>
-        </is>
-      </c>
-      <c r="AP1" t="inlineStr">
-        <is>
-          <t>Untitled 41</t>
-        </is>
-      </c>
-      <c r="AQ1" t="inlineStr">
-        <is>
-          <t>Untitled 42</t>
-        </is>
-      </c>
-      <c r="AR1" t="inlineStr">
-        <is>
-          <t>Untitled 43</t>
-        </is>
-      </c>
-      <c r="AS1" t="inlineStr">
-        <is>
-          <t>Untitled 44</t>
-        </is>
-      </c>
-      <c r="AT1" t="inlineStr">
-        <is>
-          <t>Untitled 45</t>
-        </is>
-      </c>
-      <c r="AU1" t="inlineStr">
-        <is>
-          <t>Untitled 46</t>
-        </is>
-      </c>
-      <c r="AV1" t="inlineStr">
-        <is>
-          <t>Untitled 47</t>
-        </is>
-      </c>
-      <c r="AW1" t="inlineStr">
-        <is>
-          <t>Untitled 48</t>
-        </is>
-      </c>
-      <c r="AX1" t="inlineStr">
-        <is>
-          <t>Untitled 49</t>
-        </is>
-      </c>
-      <c r="AY1" t="inlineStr">
-        <is>
-          <t>Untitled 50</t>
-        </is>
-      </c>
-      <c r="AZ1" t="inlineStr">
-        <is>
-          <t>Untitled 51</t>
-        </is>
-      </c>
-      <c r="BA1" t="inlineStr">
-        <is>
-          <t>Untitled 52</t>
-        </is>
-      </c>
-      <c r="BB1" t="inlineStr">
-        <is>
-          <t>Untitled 53</t>
-        </is>
-      </c>
-      <c r="BC1" t="inlineStr">
-        <is>
-          <t>Untitled 54</t>
-        </is>
-      </c>
-      <c r="BD1" t="inlineStr">
-        <is>
-          <t>Untitled 55</t>
-        </is>
-      </c>
-      <c r="BE1" t="inlineStr">
-        <is>
-          <t>Untitled 56</t>
-        </is>
-      </c>
-      <c r="BF1" t="inlineStr">
-        <is>
-          <t>Untitled 57</t>
-        </is>
-      </c>
-      <c r="BG1" t="inlineStr">
-        <is>
-          <t>Untitled 58</t>
-        </is>
-      </c>
-      <c r="BH1" t="inlineStr">
-        <is>
-          <t>Untitled 59</t>
-        </is>
-      </c>
-      <c r="BI1" t="inlineStr">
-        <is>
-          <t>Untitled 60</t>
-        </is>
-      </c>
-      <c r="BJ1" t="inlineStr">
-        <is>
-          <t>Untitled 61</t>
-        </is>
-      </c>
-      <c r="BK1" t="inlineStr">
-        <is>
-          <t>Untitled 62</t>
-        </is>
-      </c>
-      <c r="BL1" t="inlineStr">
-        <is>
-          <t>Untitled 63</t>
-        </is>
-      </c>
-      <c r="BM1" t="inlineStr">
-        <is>
-          <t>Untitled 64</t>
-        </is>
-      </c>
-      <c r="BN1" t="inlineStr">
-        <is>
-          <t>Untitled 65</t>
-        </is>
-      </c>
-      <c r="BO1" t="inlineStr">
-        <is>
-          <t>Untitled 66</t>
-        </is>
-      </c>
-      <c r="BP1" t="inlineStr">
-        <is>
-          <t>Untitled 67</t>
-        </is>
-      </c>
-      <c r="BQ1" t="inlineStr">
-        <is>
-          <t>Untitled 68</t>
-        </is>
-      </c>
-      <c r="BR1" t="inlineStr">
-        <is>
-          <t>Untitled 69</t>
-        </is>
-      </c>
-      <c r="BS1" t="inlineStr">
-        <is>
-          <t>Untitled 70</t>
-        </is>
-      </c>
-      <c r="BT1" t="inlineStr">
-        <is>
-          <t>Untitled 71</t>
-        </is>
-      </c>
-      <c r="BU1" t="inlineStr">
-        <is>
-          <t>Untitled 72</t>
-        </is>
-      </c>
-      <c r="BV1" t="inlineStr">
-        <is>
-          <t>Untitled 73</t>
-        </is>
-      </c>
-      <c r="BW1" t="inlineStr">
-        <is>
-          <t>Untitled 74</t>
-        </is>
-      </c>
-      <c r="BX1" t="inlineStr">
-        <is>
-          <t>Untitled 75</t>
-        </is>
-      </c>
-      <c r="BY1" t="inlineStr">
-        <is>
-          <t>Untitled 76</t>
-        </is>
-      </c>
-      <c r="BZ1" t="inlineStr">
-        <is>
-          <t>Untitled 77</t>
-        </is>
-      </c>
-      <c r="CA1" t="inlineStr">
-        <is>
-          <t>Untitled 78</t>
-        </is>
-      </c>
-      <c r="CB1" t="inlineStr">
-        <is>
-          <t>Untitled 79</t>
-        </is>
-      </c>
-      <c r="CC1" t="inlineStr">
-        <is>
-          <t>Untitled 80</t>
-        </is>
-      </c>
-      <c r="CD1" t="inlineStr">
-        <is>
-          <t>Untitled 81</t>
-        </is>
-      </c>
-      <c r="CE1" t="inlineStr">
-        <is>
-          <t>Untitled 82</t>
-        </is>
-      </c>
-      <c r="CF1" t="inlineStr">
-        <is>
-          <t>Untitled 83</t>
-        </is>
-      </c>
-      <c r="CG1" t="inlineStr">
-        <is>
-          <t>Untitled 84</t>
-        </is>
+    <row r="1" spans="1:85">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BN1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BO1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BP1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BQ1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BR1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BS1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BT1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BU1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BV1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BW1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BX1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BY1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BZ1" t="s">
+        <v>77</v>
+      </c>
+      <c r="CA1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CB1" t="s">
+        <v>79</v>
+      </c>
+      <c r="CC1" t="s">
+        <v>80</v>
+      </c>
+      <c r="CD1" t="s">
+        <v>81</v>
+      </c>
+      <c r="CE1" t="s">
+        <v>82</v>
+      </c>
+      <c r="CF1" t="s">
+        <v>83</v>
+      </c>
+      <c r="CG1" t="s">
+        <v>84</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:85">
       <c r="A2" s="1">
-        <v>48974.285246</v>
+        <v>48974.285245999999</v>
       </c>
       <c r="B2" s="1">
         <v>13.603968</v>
       </c>
       <c r="C2" s="1">
-        <v>1239.170000</v>
+        <v>1239.17</v>
       </c>
       <c r="D2" s="1">
-        <v>-288.047000</v>
+        <v>-288.04700000000003</v>
       </c>
       <c r="E2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>48984.324770</v>
+        <v>48984.324769999999</v>
       </c>
       <c r="G2" s="1">
         <v>13.606757</v>
       </c>
       <c r="H2" s="1">
-        <v>1263.600000</v>
+        <v>1263.5999999999999</v>
       </c>
       <c r="I2" s="1">
-        <v>-252.668000</v>
+        <v>-252.66800000000001</v>
       </c>
       <c r="J2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
-        <v>48994.752198</v>
+        <v>48994.752198000002</v>
       </c>
       <c r="L2" s="1">
         <v>13.609653</v>
       </c>
       <c r="M2" s="1">
-        <v>1301.300000</v>
+        <v>1301.3</v>
       </c>
       <c r="N2" s="1">
-        <v>-197.276000</v>
+        <v>-197.27600000000001</v>
       </c>
       <c r="O2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P2" s="1">
-        <v>49005.613558</v>
+        <v>49005.613557999997</v>
       </c>
       <c r="Q2" s="1">
-        <v>13.612670</v>
+        <v>13.61267</v>
       </c>
       <c r="R2" s="1">
-        <v>1314.050000</v>
+        <v>1314.05</v>
       </c>
       <c r="S2" s="1">
-        <v>-181.206000</v>
+        <v>-181.20599999999999</v>
       </c>
       <c r="T2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U2" s="1">
-        <v>49016.162967</v>
+        <v>49016.162966999997</v>
       </c>
       <c r="V2" s="1">
         <v>13.615601</v>
       </c>
       <c r="W2" s="1">
-        <v>1328.110000</v>
+        <v>1328.11</v>
       </c>
       <c r="X2" s="1">
-        <v>-168.929000</v>
+        <v>-168.929</v>
       </c>
       <c r="Y2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z2" s="1">
-        <v>49026.925193</v>
+        <v>49026.925193000003</v>
       </c>
       <c r="AA2" s="1">
-        <v>13.618590</v>
+        <v>13.618589999999999</v>
       </c>
       <c r="AB2" s="1">
-        <v>1346.210000</v>
+        <v>1346.21</v>
       </c>
       <c r="AC2" s="1">
-        <v>-167.633000</v>
+        <v>-167.63300000000001</v>
       </c>
       <c r="AD2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE2" s="1">
-        <v>49037.522684</v>
+        <v>49037.522684000003</v>
       </c>
       <c r="AF2" s="1">
         <v>13.621534</v>
       </c>
       <c r="AG2" s="1">
-        <v>1359.470000</v>
+        <v>1359.47</v>
       </c>
       <c r="AH2" s="1">
-        <v>-177.612000</v>
+        <v>-177.61199999999999</v>
       </c>
       <c r="AI2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ2" s="1">
-        <v>49047.958510</v>
+        <v>49047.958509999997</v>
       </c>
       <c r="AK2" s="1">
         <v>13.624433</v>
       </c>
       <c r="AL2" s="1">
-        <v>1380.180000</v>
+        <v>1380.18</v>
       </c>
       <c r="AM2" s="1">
-        <v>-207.825000</v>
+        <v>-207.82499999999999</v>
       </c>
       <c r="AN2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO2" s="1">
-        <v>49058.836768</v>
+        <v>49058.836768000001</v>
       </c>
       <c r="AP2" s="1">
-        <v>13.627455</v>
+        <v>13.627454999999999</v>
       </c>
       <c r="AQ2" s="1">
-        <v>1402.080000</v>
+        <v>1402.08</v>
       </c>
       <c r="AR2" s="1">
-        <v>-251.727000</v>
+        <v>-251.727</v>
       </c>
       <c r="AS2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT2" s="1">
         <v>49069.873259</v>
       </c>
       <c r="AU2" s="1">
-        <v>13.630520</v>
+        <v>13.630520000000001</v>
       </c>
       <c r="AV2" s="1">
-        <v>1426.720000</v>
+        <v>1426.72</v>
       </c>
       <c r="AW2" s="1">
-        <v>-311.565000</v>
+        <v>-311.565</v>
       </c>
       <c r="AX2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY2" s="1">
-        <v>49080.936515</v>
+        <v>49080.936515000001</v>
       </c>
       <c r="AZ2" s="1">
-        <v>13.633593</v>
+        <v>13.633592999999999</v>
       </c>
       <c r="BA2" s="1">
-        <v>1446.140000</v>
+        <v>1446.14</v>
       </c>
       <c r="BB2" s="1">
-        <v>-363.542000</v>
+        <v>-363.54199999999997</v>
       </c>
       <c r="BC2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD2" s="1">
-        <v>49091.944724</v>
+        <v>49091.944724000001</v>
       </c>
       <c r="BE2" s="1">
-        <v>13.636651</v>
+        <v>13.636651000000001</v>
       </c>
       <c r="BF2" s="1">
-        <v>1531.700000</v>
+        <v>1531.7</v>
       </c>
       <c r="BG2" s="1">
-        <v>-610.737000</v>
+        <v>-610.73699999999997</v>
       </c>
       <c r="BH2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI2" s="1">
         <v>49102.952932</v>
@@ -661,240 +1077,240 @@
         <v>13.639709</v>
       </c>
       <c r="BK2" s="1">
-        <v>1686.260000</v>
+        <v>1686.26</v>
       </c>
       <c r="BL2" s="1">
-        <v>-1053.420000</v>
+        <v>-1053.42</v>
       </c>
       <c r="BM2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN2" s="1">
-        <v>49114.317298</v>
+        <v>49114.317298000002</v>
       </c>
       <c r="BO2" s="1">
         <v>13.642866</v>
       </c>
       <c r="BP2" s="1">
-        <v>1980.430000</v>
+        <v>1980.43</v>
       </c>
       <c r="BQ2" s="1">
-        <v>-1819.730000</v>
+        <v>-1819.73</v>
       </c>
       <c r="BR2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS2" s="1">
-        <v>49125.022424</v>
+        <v>49125.022424000003</v>
       </c>
       <c r="BT2" s="1">
-        <v>13.645840</v>
+        <v>13.64584</v>
       </c>
       <c r="BU2" s="1">
-        <v>2370.320000</v>
+        <v>2370.3200000000002</v>
       </c>
       <c r="BV2" s="1">
-        <v>-2702.930000</v>
+        <v>-2702.93</v>
       </c>
       <c r="BW2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX2" s="1">
         <v>49135.691369</v>
       </c>
       <c r="BY2" s="1">
-        <v>13.648803</v>
+        <v>13.648802999999999</v>
       </c>
       <c r="BZ2" s="1">
-        <v>2850.870000</v>
+        <v>2850.87</v>
       </c>
       <c r="CA2" s="1">
-        <v>-3667.910000</v>
+        <v>-3667.91</v>
       </c>
       <c r="CB2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC2" s="1">
-        <v>49146.668916</v>
+        <v>49146.668916000002</v>
       </c>
       <c r="CD2" s="1">
         <v>13.651852</v>
       </c>
       <c r="CE2" s="1">
-        <v>4263.010000</v>
+        <v>4263.01</v>
       </c>
       <c r="CF2" s="1">
-        <v>-5975.010000</v>
+        <v>-5975.01</v>
       </c>
       <c r="CG2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:85">
       <c r="A3" s="1">
-        <v>48974.694942</v>
+        <v>48974.694942000002</v>
       </c>
       <c r="B3" s="1">
         <v>13.604082</v>
       </c>
       <c r="C3" s="1">
-        <v>1239.080000</v>
+        <v>1239.08</v>
       </c>
       <c r="D3" s="1">
-        <v>-287.953000</v>
+        <v>-287.95299999999997</v>
       </c>
       <c r="E3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F3" s="1">
-        <v>48984.741409</v>
+        <v>48984.741409000002</v>
       </c>
       <c r="G3" s="1">
         <v>13.606873</v>
       </c>
       <c r="H3" s="1">
-        <v>1264.460000</v>
+        <v>1264.46</v>
       </c>
       <c r="I3" s="1">
-        <v>-252.414000</v>
+        <v>-252.41399999999999</v>
       </c>
       <c r="J3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K3" s="1">
-        <v>48995.165828</v>
+        <v>48995.165827999997</v>
       </c>
       <c r="L3" s="1">
-        <v>13.609768</v>
+        <v>13.609768000000001</v>
       </c>
       <c r="M3" s="1">
-        <v>1301.380000</v>
+        <v>1301.3800000000001</v>
       </c>
       <c r="N3" s="1">
-        <v>-197.328000</v>
+        <v>-197.328</v>
       </c>
       <c r="O3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P3" s="1">
-        <v>49005.977620</v>
+        <v>49005.977619999998</v>
       </c>
       <c r="Q3" s="1">
         <v>13.612772</v>
       </c>
       <c r="R3" s="1">
-        <v>1314.030000</v>
+        <v>1314.03</v>
       </c>
       <c r="S3" s="1">
-        <v>-181.153000</v>
+        <v>-181.15299999999999</v>
       </c>
       <c r="T3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U3" s="1">
-        <v>49016.530008</v>
+        <v>49016.530008000002</v>
       </c>
       <c r="V3" s="1">
         <v>13.615703</v>
       </c>
       <c r="W3" s="1">
-        <v>1328.250000</v>
+        <v>1328.25</v>
       </c>
       <c r="X3" s="1">
-        <v>-168.704000</v>
+        <v>-168.70400000000001</v>
       </c>
       <c r="Y3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z3" s="1">
-        <v>49027.313032</v>
+        <v>49027.313031999998</v>
       </c>
       <c r="AA3" s="1">
         <v>13.618698</v>
       </c>
       <c r="AB3" s="1">
-        <v>1346.190000</v>
+        <v>1346.19</v>
       </c>
       <c r="AC3" s="1">
-        <v>-167.661000</v>
+        <v>-167.661</v>
       </c>
       <c r="AD3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE3" s="1">
-        <v>49038.249323</v>
+        <v>49038.249322999996</v>
       </c>
       <c r="AF3" s="1">
         <v>13.621736</v>
       </c>
       <c r="AG3" s="1">
-        <v>1359.330000</v>
+        <v>1359.33</v>
       </c>
       <c r="AH3" s="1">
-        <v>-177.602000</v>
+        <v>-177.602</v>
       </c>
       <c r="AI3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ3" s="1">
-        <v>49048.683692</v>
+        <v>49048.683691999999</v>
       </c>
       <c r="AK3" s="1">
         <v>13.624634</v>
       </c>
       <c r="AL3" s="1">
-        <v>1380.230000</v>
+        <v>1380.23</v>
       </c>
       <c r="AM3" s="1">
-        <v>-207.833000</v>
+        <v>-207.833</v>
       </c>
       <c r="AN3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO3" s="1">
         <v>49059.224638</v>
       </c>
       <c r="AP3" s="1">
-        <v>13.627562</v>
+        <v>13.627561999999999</v>
       </c>
       <c r="AQ3" s="1">
-        <v>1402.050000</v>
+        <v>1402.05</v>
       </c>
       <c r="AR3" s="1">
-        <v>-251.682000</v>
+        <v>-251.68199999999999</v>
       </c>
       <c r="AS3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT3" s="1">
-        <v>49070.240319</v>
+        <v>49070.240318999997</v>
       </c>
       <c r="AU3" s="1">
-        <v>13.630622</v>
+        <v>13.630622000000001</v>
       </c>
       <c r="AV3" s="1">
-        <v>1426.710000</v>
+        <v>1426.71</v>
       </c>
       <c r="AW3" s="1">
-        <v>-311.576000</v>
+        <v>-311.57600000000002</v>
       </c>
       <c r="AX3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY3" s="1">
-        <v>49081.297106</v>
+        <v>49081.297105999998</v>
       </c>
       <c r="AZ3" s="1">
         <v>13.633694</v>
       </c>
       <c r="BA3" s="1">
-        <v>1446.130000</v>
+        <v>1446.13</v>
       </c>
       <c r="BB3" s="1">
-        <v>-363.546000</v>
+        <v>-363.54599999999999</v>
       </c>
       <c r="BC3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD3" s="1">
         <v>49092.645075</v>
@@ -903,105 +1319,105 @@
         <v>13.636846</v>
       </c>
       <c r="BF3" s="1">
-        <v>1531.690000</v>
+        <v>1531.69</v>
       </c>
       <c r="BG3" s="1">
-        <v>-610.799000</v>
+        <v>-610.79899999999998</v>
       </c>
       <c r="BH3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI3" s="1">
-        <v>49103.470756</v>
+        <v>49103.470756000002</v>
       </c>
       <c r="BJ3" s="1">
         <v>13.639853</v>
       </c>
       <c r="BK3" s="1">
-        <v>1686.280000</v>
+        <v>1686.28</v>
       </c>
       <c r="BL3" s="1">
-        <v>-1053.450000</v>
+        <v>-1053.45</v>
       </c>
       <c r="BM3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN3" s="1">
-        <v>49114.828644</v>
+        <v>49114.828644000001</v>
       </c>
       <c r="BO3" s="1">
         <v>13.643008</v>
       </c>
       <c r="BP3" s="1">
-        <v>1980.430000</v>
+        <v>1980.43</v>
       </c>
       <c r="BQ3" s="1">
-        <v>-1819.790000</v>
+        <v>-1819.79</v>
       </c>
       <c r="BR3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS3" s="1">
-        <v>49125.513959</v>
+        <v>49125.513959000004</v>
       </c>
       <c r="BT3" s="1">
-        <v>13.645976</v>
+        <v>13.645975999999999</v>
       </c>
       <c r="BU3" s="1">
-        <v>2369.370000</v>
+        <v>2369.37</v>
       </c>
       <c r="BV3" s="1">
-        <v>-2701.760000</v>
+        <v>-2701.76</v>
       </c>
       <c r="BW3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX3" s="1">
-        <v>49136.178480</v>
+        <v>49136.178480000002</v>
       </c>
       <c r="BY3" s="1">
-        <v>13.648938</v>
+        <v>13.648937999999999</v>
       </c>
       <c r="BZ3" s="1">
-        <v>2850.530000</v>
+        <v>2850.53</v>
       </c>
       <c r="CA3" s="1">
-        <v>-3667.350000</v>
+        <v>-3667.35</v>
       </c>
       <c r="CB3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC3" s="1">
-        <v>49147.241210</v>
+        <v>49147.24121</v>
       </c>
       <c r="CD3" s="1">
         <v>13.652011</v>
       </c>
       <c r="CE3" s="1">
-        <v>4278.000000</v>
+        <v>4278</v>
       </c>
       <c r="CF3" s="1">
-        <v>-5988.870000</v>
+        <v>-5988.87</v>
       </c>
       <c r="CG3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:85">
       <c r="A4" s="1">
-        <v>48974.990077</v>
+        <v>48974.990077000002</v>
       </c>
       <c r="B4" s="1">
-        <v>13.604164</v>
+        <v>13.604164000000001</v>
       </c>
       <c r="C4" s="1">
-        <v>1238.980000</v>
+        <v>1238.98</v>
       </c>
       <c r="D4" s="1">
-        <v>-288.292000</v>
+        <v>-288.29199999999997</v>
       </c>
       <c r="E4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F4" s="1">
         <v>48985.051905</v>
@@ -1010,241 +1426,241 @@
         <v>13.606959</v>
       </c>
       <c r="H4" s="1">
-        <v>1263.970000</v>
+        <v>1263.97</v>
       </c>
       <c r="I4" s="1">
-        <v>-252.602000</v>
+        <v>-252.602</v>
       </c>
       <c r="J4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K4" s="1">
-        <v>48995.513026</v>
+        <v>48995.513026000001</v>
       </c>
       <c r="L4" s="1">
-        <v>13.609865</v>
+        <v>13.609864999999999</v>
       </c>
       <c r="M4" s="1">
-        <v>1301.130000</v>
+        <v>1301.1300000000001</v>
       </c>
       <c r="N4" s="1">
-        <v>-197.504000</v>
+        <v>-197.50399999999999</v>
       </c>
       <c r="O4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P4" s="1">
-        <v>49006.325315</v>
+        <v>49006.325315000002</v>
       </c>
       <c r="Q4" s="1">
-        <v>13.612868</v>
+        <v>13.612868000000001</v>
       </c>
       <c r="R4" s="1">
-        <v>1314.060000</v>
+        <v>1314.06</v>
       </c>
       <c r="S4" s="1">
-        <v>-181.077000</v>
+        <v>-181.077</v>
       </c>
       <c r="T4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U4" s="1">
-        <v>49016.873271</v>
+        <v>49016.873270999997</v>
       </c>
       <c r="V4" s="1">
         <v>13.615798</v>
       </c>
       <c r="W4" s="1">
-        <v>1327.990000</v>
+        <v>1327.99</v>
       </c>
       <c r="X4" s="1">
-        <v>-168.879000</v>
+        <v>-168.87899999999999</v>
       </c>
       <c r="Y4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z4" s="1">
-        <v>49028.007928</v>
+        <v>49028.007927999999</v>
       </c>
       <c r="AA4" s="1">
         <v>13.618891</v>
       </c>
       <c r="AB4" s="1">
-        <v>1346.160000</v>
+        <v>1346.16</v>
       </c>
       <c r="AC4" s="1">
-        <v>-167.676000</v>
+        <v>-167.67599999999999</v>
       </c>
       <c r="AD4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE4" s="1">
         <v>49038.593577</v>
       </c>
       <c r="AF4" s="1">
-        <v>13.621832</v>
+        <v>13.621831999999999</v>
       </c>
       <c r="AG4" s="1">
-        <v>1359.340000</v>
+        <v>1359.34</v>
       </c>
       <c r="AH4" s="1">
-        <v>-177.673000</v>
+        <v>-177.673</v>
       </c>
       <c r="AI4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ4" s="1">
-        <v>49049.037835</v>
+        <v>49049.037835000003</v>
       </c>
       <c r="AK4" s="1">
-        <v>13.624733</v>
+        <v>13.624733000000001</v>
       </c>
       <c r="AL4" s="1">
-        <v>1380.230000</v>
+        <v>1380.23</v>
       </c>
       <c r="AM4" s="1">
-        <v>-207.811000</v>
+        <v>-207.81100000000001</v>
       </c>
       <c r="AN4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO4" s="1">
-        <v>49059.584734</v>
+        <v>49059.584733999996</v>
       </c>
       <c r="AP4" s="1">
-        <v>13.627662</v>
+        <v>13.627662000000001</v>
       </c>
       <c r="AQ4" s="1">
-        <v>1402.060000</v>
+        <v>1402.06</v>
       </c>
       <c r="AR4" s="1">
-        <v>-251.698000</v>
+        <v>-251.69800000000001</v>
       </c>
       <c r="AS4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT4" s="1">
-        <v>49070.915838</v>
+        <v>49070.915838000001</v>
       </c>
       <c r="AU4" s="1">
-        <v>13.630810</v>
+        <v>13.63081</v>
       </c>
       <c r="AV4" s="1">
-        <v>1426.730000</v>
+        <v>1426.73</v>
       </c>
       <c r="AW4" s="1">
-        <v>-311.580000</v>
+        <v>-311.58</v>
       </c>
       <c r="AX4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY4" s="1">
-        <v>49081.972656</v>
+        <v>49081.972655999998</v>
       </c>
       <c r="AZ4" s="1">
-        <v>13.633881</v>
+        <v>13.633881000000001</v>
       </c>
       <c r="BA4" s="1">
-        <v>1446.140000</v>
+        <v>1446.14</v>
       </c>
       <c r="BB4" s="1">
-        <v>-363.518000</v>
+        <v>-363.51799999999997</v>
       </c>
       <c r="BC4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD4" s="1">
-        <v>49093.082545</v>
+        <v>49093.082544999997</v>
       </c>
       <c r="BE4" s="1">
         <v>13.636967</v>
       </c>
       <c r="BF4" s="1">
-        <v>1531.670000</v>
+        <v>1531.67</v>
       </c>
       <c r="BG4" s="1">
-        <v>-610.757000</v>
+        <v>-610.75699999999995</v>
       </c>
       <c r="BH4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI4" s="1">
-        <v>49103.745540</v>
+        <v>49103.745540000004</v>
       </c>
       <c r="BJ4" s="1">
         <v>13.639929</v>
       </c>
       <c r="BK4" s="1">
-        <v>1686.190000</v>
+        <v>1686.19</v>
       </c>
       <c r="BL4" s="1">
-        <v>-1053.530000</v>
+        <v>-1053.53</v>
       </c>
       <c r="BM4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN4" s="1">
-        <v>49115.246275</v>
+        <v>49115.246274999998</v>
       </c>
       <c r="BO4" s="1">
         <v>13.643124</v>
       </c>
       <c r="BP4" s="1">
-        <v>1980.320000</v>
+        <v>1980.32</v>
       </c>
       <c r="BQ4" s="1">
-        <v>-1819.780000</v>
+        <v>-1819.78</v>
       </c>
       <c r="BR4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS4" s="1">
-        <v>49125.946469</v>
+        <v>49125.946469000002</v>
       </c>
       <c r="BT4" s="1">
         <v>13.646096</v>
       </c>
       <c r="BU4" s="1">
-        <v>2368.380000</v>
+        <v>2368.38</v>
       </c>
       <c r="BV4" s="1">
-        <v>-2701.500000</v>
+        <v>-2701.5</v>
       </c>
       <c r="BW4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX4" s="1">
-        <v>49136.626823</v>
+        <v>49136.626822999999</v>
       </c>
       <c r="BY4" s="1">
         <v>13.649063</v>
       </c>
       <c r="BZ4" s="1">
-        <v>2849.270000</v>
+        <v>2849.27</v>
       </c>
       <c r="CA4" s="1">
-        <v>-3668.010000</v>
+        <v>-3668.01</v>
       </c>
       <c r="CB4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC4" s="1">
-        <v>49147.778904</v>
+        <v>49147.778903999999</v>
       </c>
       <c r="CD4" s="1">
         <v>13.652161</v>
       </c>
       <c r="CE4" s="1">
-        <v>4267.640000</v>
+        <v>4267.6400000000003</v>
       </c>
       <c r="CF4" s="1">
-        <v>-5976.680000</v>
+        <v>-5976.68</v>
       </c>
       <c r="CG4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:85">
       <c r="A5" s="1">
         <v>48975.329822</v>
       </c>
@@ -1252,13 +1668,13 @@
         <v>13.604258</v>
       </c>
       <c r="C5" s="1">
-        <v>1239.130000</v>
+        <v>1239.1300000000001</v>
       </c>
       <c r="D5" s="1">
-        <v>-288.457000</v>
+        <v>-288.45699999999999</v>
       </c>
       <c r="E5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F5" s="1">
         <v>48985.396128</v>
@@ -1267,178 +1683,178 @@
         <v>13.607054</v>
       </c>
       <c r="H5" s="1">
-        <v>1264.720000</v>
+        <v>1264.72</v>
       </c>
       <c r="I5" s="1">
-        <v>-252.184000</v>
+        <v>-252.184</v>
       </c>
       <c r="J5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K5" s="1">
-        <v>48995.858242</v>
+        <v>48995.858242000002</v>
       </c>
       <c r="L5" s="1">
         <v>13.609961</v>
       </c>
       <c r="M5" s="1">
-        <v>1301.130000</v>
+        <v>1301.1300000000001</v>
       </c>
       <c r="N5" s="1">
-        <v>-197.497000</v>
+        <v>-197.49700000000001</v>
       </c>
       <c r="O5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P5" s="1">
         <v>49007.023189</v>
       </c>
       <c r="Q5" s="1">
-        <v>13.613062</v>
+        <v>13.613061999999999</v>
       </c>
       <c r="R5" s="1">
-        <v>1314.040000</v>
+        <v>1314.04</v>
       </c>
       <c r="S5" s="1">
-        <v>-181.055000</v>
+        <v>-181.05500000000001</v>
       </c>
       <c r="T5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U5" s="1">
-        <v>49017.559206</v>
+        <v>49017.559205999998</v>
       </c>
       <c r="V5" s="1">
-        <v>13.615989</v>
+        <v>13.615989000000001</v>
       </c>
       <c r="W5" s="1">
-        <v>1328.000000</v>
+        <v>1328</v>
       </c>
       <c r="X5" s="1">
-        <v>-168.863000</v>
+        <v>-168.863</v>
       </c>
       <c r="Y5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z5" s="1">
-        <v>49028.359127</v>
+        <v>49028.359127000003</v>
       </c>
       <c r="AA5" s="1">
-        <v>13.618989</v>
+        <v>13.618988999999999</v>
       </c>
       <c r="AB5" s="1">
-        <v>1346.070000</v>
+        <v>1346.07</v>
       </c>
       <c r="AC5" s="1">
-        <v>-167.639000</v>
+        <v>-167.63900000000001</v>
       </c>
       <c r="AD5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE5" s="1">
         <v>49038.937801</v>
       </c>
       <c r="AF5" s="1">
-        <v>13.621927</v>
+        <v>13.621926999999999</v>
       </c>
       <c r="AG5" s="1">
-        <v>1359.230000</v>
+        <v>1359.23</v>
       </c>
       <c r="AH5" s="1">
-        <v>-177.734000</v>
+        <v>-177.73400000000001</v>
       </c>
       <c r="AI5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ5" s="1">
-        <v>49049.383050</v>
+        <v>49049.383049999997</v>
       </c>
       <c r="AK5" s="1">
         <v>13.624829</v>
       </c>
       <c r="AL5" s="1">
-        <v>1380.230000</v>
+        <v>1380.23</v>
       </c>
       <c r="AM5" s="1">
-        <v>-207.816000</v>
+        <v>-207.816</v>
       </c>
       <c r="AN5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO5" s="1">
-        <v>49060.258828</v>
+        <v>49060.258827999998</v>
       </c>
       <c r="AP5" s="1">
-        <v>13.627850</v>
+        <v>13.62785</v>
       </c>
       <c r="AQ5" s="1">
-        <v>1402.040000</v>
+        <v>1402.04</v>
       </c>
       <c r="AR5" s="1">
-        <v>-251.674000</v>
+        <v>-251.67400000000001</v>
       </c>
       <c r="AS5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT5" s="1">
-        <v>49071.359758</v>
+        <v>49071.359757999999</v>
       </c>
       <c r="AU5" s="1">
-        <v>13.630933</v>
+        <v>13.630933000000001</v>
       </c>
       <c r="AV5" s="1">
-        <v>1426.730000</v>
+        <v>1426.73</v>
       </c>
       <c r="AW5" s="1">
-        <v>-311.579000</v>
+        <v>-311.57900000000001</v>
       </c>
       <c r="AX5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY5" s="1">
-        <v>49082.399248</v>
+        <v>49082.399248000002</v>
       </c>
       <c r="AZ5" s="1">
-        <v>13.634000</v>
+        <v>13.634</v>
       </c>
       <c r="BA5" s="1">
-        <v>1446.140000</v>
+        <v>1446.14</v>
       </c>
       <c r="BB5" s="1">
-        <v>-363.526000</v>
+        <v>-363.52600000000001</v>
       </c>
       <c r="BC5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD5" s="1">
-        <v>49093.437681</v>
+        <v>49093.437681000003</v>
       </c>
       <c r="BE5" s="1">
-        <v>13.637066</v>
+        <v>13.637066000000001</v>
       </c>
       <c r="BF5" s="1">
-        <v>1531.690000</v>
+        <v>1531.69</v>
       </c>
       <c r="BG5" s="1">
-        <v>-610.761000</v>
+        <v>-610.76099999999997</v>
       </c>
       <c r="BH5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI5" s="1">
-        <v>49104.118065</v>
+        <v>49104.118065000002</v>
       </c>
       <c r="BJ5" s="1">
-        <v>13.640033</v>
+        <v>13.640033000000001</v>
       </c>
       <c r="BK5" s="1">
-        <v>1686.190000</v>
+        <v>1686.19</v>
       </c>
       <c r="BL5" s="1">
-        <v>-1053.390000</v>
+        <v>-1053.3900000000001</v>
       </c>
       <c r="BM5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN5" s="1">
         <v>49115.643075</v>
@@ -1447,90 +1863,90 @@
         <v>13.643234</v>
       </c>
       <c r="BP5" s="1">
-        <v>1980.420000</v>
+        <v>1980.42</v>
       </c>
       <c r="BQ5" s="1">
-        <v>-1819.910000</v>
+        <v>-1819.91</v>
       </c>
       <c r="BR5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS5" s="1">
-        <v>49126.365624</v>
+        <v>49126.365623999998</v>
       </c>
       <c r="BT5" s="1">
-        <v>13.646213</v>
+        <v>13.646212999999999</v>
       </c>
       <c r="BU5" s="1">
-        <v>2367.150000</v>
+        <v>2367.15</v>
       </c>
       <c r="BV5" s="1">
-        <v>-2701.020000</v>
+        <v>-2701.02</v>
       </c>
       <c r="BW5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX5" s="1">
-        <v>49137.101496</v>
+        <v>49137.101496000003</v>
       </c>
       <c r="BY5" s="1">
-        <v>13.649195</v>
+        <v>13.649195000000001</v>
       </c>
       <c r="BZ5" s="1">
-        <v>2849.940000</v>
+        <v>2849.94</v>
       </c>
       <c r="CA5" s="1">
-        <v>-3668.540000</v>
+        <v>-3668.54</v>
       </c>
       <c r="CB5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC5" s="1">
-        <v>49148.299177</v>
+        <v>49148.299177000001</v>
       </c>
       <c r="CD5" s="1">
         <v>13.652305</v>
       </c>
       <c r="CE5" s="1">
-        <v>4257.160000</v>
+        <v>4257.16</v>
       </c>
       <c r="CF5" s="1">
-        <v>-5987.160000</v>
+        <v>-5987.16</v>
       </c>
       <c r="CG5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:85">
       <c r="A6" s="1">
-        <v>48975.673085</v>
+        <v>48975.673085000002</v>
       </c>
       <c r="B6" s="1">
-        <v>13.604354</v>
+        <v>13.604354000000001</v>
       </c>
       <c r="C6" s="1">
-        <v>1239.130000</v>
+        <v>1239.1300000000001</v>
       </c>
       <c r="D6" s="1">
-        <v>-288.157000</v>
+        <v>-288.15699999999998</v>
       </c>
       <c r="E6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F6" s="1">
-        <v>48985.737412</v>
+        <v>48985.737412000002</v>
       </c>
       <c r="G6" s="1">
         <v>13.607149</v>
       </c>
       <c r="H6" s="1">
-        <v>1264.110000</v>
+        <v>1264.1099999999999</v>
       </c>
       <c r="I6" s="1">
-        <v>-252.011000</v>
+        <v>-252.011</v>
       </c>
       <c r="J6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K6" s="1">
         <v>48996.551153</v>
@@ -1539,103 +1955,103 @@
         <v>13.610153</v>
       </c>
       <c r="M6" s="1">
-        <v>1301.050000</v>
+        <v>1301.05</v>
       </c>
       <c r="N6" s="1">
-        <v>-197.580000</v>
+        <v>-197.58</v>
       </c>
       <c r="O6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P6" s="1">
-        <v>49007.361492</v>
+        <v>49007.361492000004</v>
       </c>
       <c r="Q6" s="1">
         <v>13.613156</v>
       </c>
       <c r="R6" s="1">
-        <v>1314.070000</v>
+        <v>1314.07</v>
       </c>
       <c r="S6" s="1">
-        <v>-181.149000</v>
+        <v>-181.149</v>
       </c>
       <c r="T6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U6" s="1">
-        <v>49017.905908</v>
+        <v>49017.905908000001</v>
       </c>
       <c r="V6" s="1">
         <v>13.616085</v>
       </c>
       <c r="W6" s="1">
-        <v>1328.030000</v>
+        <v>1328.03</v>
       </c>
       <c r="X6" s="1">
-        <v>-168.834000</v>
+        <v>-168.834</v>
       </c>
       <c r="Y6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z6" s="1">
-        <v>49028.707783</v>
+        <v>49028.707782999998</v>
       </c>
       <c r="AA6" s="1">
         <v>13.619085</v>
       </c>
       <c r="AB6" s="1">
-        <v>1346.310000</v>
+        <v>1346.31</v>
       </c>
       <c r="AC6" s="1">
-        <v>-167.563000</v>
+        <v>-167.56299999999999</v>
       </c>
       <c r="AD6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE6" s="1">
-        <v>49039.585576</v>
+        <v>49039.585575999998</v>
       </c>
       <c r="AF6" s="1">
         <v>13.622107</v>
       </c>
       <c r="AG6" s="1">
-        <v>1359.400000</v>
+        <v>1359.4</v>
       </c>
       <c r="AH6" s="1">
-        <v>-177.463000</v>
+        <v>-177.46299999999999</v>
       </c>
       <c r="AI6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ6" s="1">
-        <v>49050.045674</v>
+        <v>49050.045674000001</v>
       </c>
       <c r="AK6" s="1">
-        <v>13.625013</v>
+        <v>13.625012999999999</v>
       </c>
       <c r="AL6" s="1">
-        <v>1380.210000</v>
+        <v>1380.21</v>
       </c>
       <c r="AM6" s="1">
-        <v>-207.794000</v>
+        <v>-207.79400000000001</v>
       </c>
       <c r="AN6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO6" s="1">
-        <v>49060.694316</v>
+        <v>49060.694316000001</v>
       </c>
       <c r="AP6" s="1">
-        <v>13.627971</v>
+        <v>13.627971000000001</v>
       </c>
       <c r="AQ6" s="1">
-        <v>1402.060000</v>
+        <v>1402.06</v>
       </c>
       <c r="AR6" s="1">
-        <v>-251.707000</v>
+        <v>-251.70699999999999</v>
       </c>
       <c r="AS6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT6" s="1">
         <v>49071.723821</v>
@@ -1644,88 +2060,88 @@
         <v>13.631034</v>
       </c>
       <c r="AV6" s="1">
-        <v>1426.750000</v>
+        <v>1426.75</v>
       </c>
       <c r="AW6" s="1">
-        <v>-311.558000</v>
+        <v>-311.55799999999999</v>
       </c>
       <c r="AX6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY6" s="1">
-        <v>49082.777694</v>
+        <v>49082.777693999997</v>
       </c>
       <c r="AZ6" s="1">
         <v>13.634105</v>
       </c>
       <c r="BA6" s="1">
-        <v>1446.160000</v>
+        <v>1446.16</v>
       </c>
       <c r="BB6" s="1">
-        <v>-363.492000</v>
+        <v>-363.49200000000002</v>
       </c>
       <c r="BC6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD6" s="1">
-        <v>49093.805218</v>
+        <v>49093.805218000001</v>
       </c>
       <c r="BE6" s="1">
-        <v>13.637168</v>
+        <v>13.637168000000001</v>
       </c>
       <c r="BF6" s="1">
-        <v>1531.680000</v>
+        <v>1531.68</v>
       </c>
       <c r="BG6" s="1">
-        <v>-610.709000</v>
+        <v>-610.70899999999995</v>
       </c>
       <c r="BH6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI6" s="1">
         <v>49104.538642</v>
       </c>
       <c r="BJ6" s="1">
-        <v>13.640150</v>
+        <v>13.64015</v>
       </c>
       <c r="BK6" s="1">
-        <v>1686.170000</v>
+        <v>1686.17</v>
       </c>
       <c r="BL6" s="1">
-        <v>-1053.460000</v>
+        <v>-1053.46</v>
       </c>
       <c r="BM6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN6" s="1">
-        <v>49116.064180</v>
+        <v>49116.064180000001</v>
       </c>
       <c r="BO6" s="1">
-        <v>13.643351</v>
+        <v>13.643350999999999</v>
       </c>
       <c r="BP6" s="1">
-        <v>1980.320000</v>
+        <v>1980.32</v>
       </c>
       <c r="BQ6" s="1">
-        <v>-1819.960000</v>
+        <v>-1819.96</v>
       </c>
       <c r="BR6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS6" s="1">
-        <v>49126.774293</v>
+        <v>49126.774293000002</v>
       </c>
       <c r="BT6" s="1">
         <v>13.646326</v>
       </c>
       <c r="BU6" s="1">
-        <v>2365.950000</v>
+        <v>2365.9499999999998</v>
       </c>
       <c r="BV6" s="1">
-        <v>-2701.400000</v>
+        <v>-2701.4</v>
       </c>
       <c r="BW6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX6" s="1">
         <v>49137.531057</v>
@@ -1734,13 +2150,13 @@
         <v>13.649314</v>
       </c>
       <c r="BZ6" s="1">
-        <v>2849.930000</v>
+        <v>2849.93</v>
       </c>
       <c r="CA6" s="1">
-        <v>-3667.650000</v>
+        <v>-3667.65</v>
       </c>
       <c r="CB6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC6" s="1">
         <v>49148.814519</v>
@@ -1749,165 +2165,165 @@
         <v>13.652448</v>
       </c>
       <c r="CE6" s="1">
-        <v>4268.580000</v>
+        <v>4268.58</v>
       </c>
       <c r="CF6" s="1">
-        <v>-5995.460000</v>
+        <v>-5995.46</v>
       </c>
       <c r="CG6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:85">
       <c r="A7" s="1">
         <v>48976.357569</v>
       </c>
       <c r="B7" s="1">
-        <v>13.604544</v>
+        <v>13.604544000000001</v>
       </c>
       <c r="C7" s="1">
-        <v>1239.040000</v>
+        <v>1239.04</v>
       </c>
       <c r="D7" s="1">
-        <v>-288.515000</v>
+        <v>-288.51499999999999</v>
       </c>
       <c r="E7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F7" s="1">
-        <v>48986.429790</v>
+        <v>48986.429790000002</v>
       </c>
       <c r="G7" s="1">
-        <v>13.607342</v>
+        <v>13.607341999999999</v>
       </c>
       <c r="H7" s="1">
-        <v>1263.720000</v>
+        <v>1263.72</v>
       </c>
       <c r="I7" s="1">
-        <v>-252.746000</v>
+        <v>-252.74600000000001</v>
       </c>
       <c r="J7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K7" s="1">
-        <v>48996.893425</v>
+        <v>48996.893425000002</v>
       </c>
       <c r="L7" s="1">
         <v>13.610248</v>
       </c>
       <c r="M7" s="1">
-        <v>1301.200000</v>
+        <v>1301.2</v>
       </c>
       <c r="N7" s="1">
-        <v>-197.714000</v>
+        <v>-197.714</v>
       </c>
       <c r="O7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P7" s="1">
-        <v>49007.720594</v>
+        <v>49007.720593999999</v>
       </c>
       <c r="Q7" s="1">
         <v>13.613256</v>
       </c>
       <c r="R7" s="1">
-        <v>1314.060000</v>
+        <v>1314.06</v>
       </c>
       <c r="S7" s="1">
-        <v>-181.161000</v>
+        <v>-181.161</v>
       </c>
       <c r="T7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U7" s="1">
-        <v>49018.254101</v>
+        <v>49018.254100999999</v>
       </c>
       <c r="V7" s="1">
         <v>13.616182</v>
       </c>
       <c r="W7" s="1">
-        <v>1328.240000</v>
+        <v>1328.24</v>
       </c>
       <c r="X7" s="1">
-        <v>-168.844000</v>
+        <v>-168.84399999999999</v>
       </c>
       <c r="Y7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z7" s="1">
-        <v>49029.364026</v>
+        <v>49029.364026000003</v>
       </c>
       <c r="AA7" s="1">
         <v>13.619268</v>
       </c>
       <c r="AB7" s="1">
-        <v>1346.060000</v>
+        <v>1346.06</v>
       </c>
       <c r="AC7" s="1">
-        <v>-167.778000</v>
+        <v>-167.77799999999999</v>
       </c>
       <c r="AD7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE7" s="1">
-        <v>49039.967000</v>
+        <v>49039.966999999997</v>
       </c>
       <c r="AF7" s="1">
         <v>13.622213</v>
       </c>
       <c r="AG7" s="1">
-        <v>1359.300000</v>
+        <v>1359.3</v>
       </c>
       <c r="AH7" s="1">
-        <v>-177.658000</v>
+        <v>-177.65799999999999</v>
       </c>
       <c r="AI7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ7" s="1">
-        <v>49050.429083</v>
+        <v>49050.429083000003</v>
       </c>
       <c r="AK7" s="1">
         <v>13.625119</v>
       </c>
       <c r="AL7" s="1">
-        <v>1380.230000</v>
+        <v>1380.23</v>
       </c>
       <c r="AM7" s="1">
-        <v>-207.813000</v>
+        <v>-207.81299999999999</v>
       </c>
       <c r="AN7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO7" s="1">
-        <v>49061.054407</v>
+        <v>49061.054407000003</v>
       </c>
       <c r="AP7" s="1">
         <v>13.628071</v>
       </c>
       <c r="AQ7" s="1">
-        <v>1402.040000</v>
+        <v>1402.04</v>
       </c>
       <c r="AR7" s="1">
-        <v>-251.721000</v>
+        <v>-251.721</v>
       </c>
       <c r="AS7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT7" s="1">
-        <v>49072.090366</v>
+        <v>49072.090365999997</v>
       </c>
       <c r="AU7" s="1">
         <v>13.631136</v>
       </c>
       <c r="AV7" s="1">
-        <v>1426.710000</v>
+        <v>1426.71</v>
       </c>
       <c r="AW7" s="1">
-        <v>-311.529000</v>
+        <v>-311.529</v>
       </c>
       <c r="AX7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY7" s="1">
         <v>49083.137294</v>
@@ -1916,73 +2332,73 @@
         <v>13.634205</v>
       </c>
       <c r="BA7" s="1">
-        <v>1446.140000</v>
+        <v>1446.14</v>
       </c>
       <c r="BB7" s="1">
-        <v>-363.502000</v>
+        <v>-363.50200000000001</v>
       </c>
       <c r="BC7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD7" s="1">
-        <v>49094.222847</v>
+        <v>49094.222846999997</v>
       </c>
       <c r="BE7" s="1">
-        <v>13.637284</v>
+        <v>13.637283999999999</v>
       </c>
       <c r="BF7" s="1">
-        <v>1531.720000</v>
+        <v>1531.72</v>
       </c>
       <c r="BG7" s="1">
-        <v>-610.694000</v>
+        <v>-610.69399999999996</v>
       </c>
       <c r="BH7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI7" s="1">
-        <v>49104.878433</v>
+        <v>49104.878432999998</v>
       </c>
       <c r="BJ7" s="1">
-        <v>13.640244</v>
+        <v>13.640243999999999</v>
       </c>
       <c r="BK7" s="1">
-        <v>1686.230000</v>
+        <v>1686.23</v>
       </c>
       <c r="BL7" s="1">
-        <v>-1053.450000</v>
+        <v>-1053.45</v>
       </c>
       <c r="BM7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN7" s="1">
-        <v>49116.461474</v>
+        <v>49116.461474000003</v>
       </c>
       <c r="BO7" s="1">
         <v>13.643462</v>
       </c>
       <c r="BP7" s="1">
-        <v>1980.280000</v>
+        <v>1980.28</v>
       </c>
       <c r="BQ7" s="1">
-        <v>-1819.890000</v>
+        <v>-1819.89</v>
       </c>
       <c r="BR7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS7" s="1">
-        <v>49127.190932</v>
+        <v>49127.190931999998</v>
       </c>
       <c r="BT7" s="1">
         <v>13.646442</v>
       </c>
       <c r="BU7" s="1">
-        <v>2364.930000</v>
+        <v>2364.9299999999998</v>
       </c>
       <c r="BV7" s="1">
-        <v>-2702.330000</v>
+        <v>-2702.33</v>
       </c>
       <c r="BW7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX7" s="1">
         <v>49137.953126</v>
@@ -1991,75 +2407,75 @@
         <v>13.649431</v>
       </c>
       <c r="BZ7" s="1">
-        <v>2849.500000</v>
+        <v>2849.5</v>
       </c>
       <c r="CA7" s="1">
-        <v>-3667.720000</v>
+        <v>-3667.72</v>
       </c>
       <c r="CB7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC7" s="1">
-        <v>49149.332840</v>
+        <v>49149.332840000003</v>
       </c>
       <c r="CD7" s="1">
         <v>13.652592</v>
       </c>
       <c r="CE7" s="1">
-        <v>4264.320000</v>
+        <v>4264.32</v>
       </c>
       <c r="CF7" s="1">
-        <v>-5997.670000</v>
+        <v>-5997.67</v>
       </c>
       <c r="CG7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:85">
       <c r="A8" s="1">
-        <v>48976.700821</v>
+        <v>48976.700820999999</v>
       </c>
       <c r="B8" s="1">
-        <v>13.604639</v>
+        <v>13.604639000000001</v>
       </c>
       <c r="C8" s="1">
-        <v>1238.440000</v>
+        <v>1238.44</v>
       </c>
       <c r="D8" s="1">
-        <v>-288.347000</v>
+        <v>-288.34699999999998</v>
       </c>
       <c r="E8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F8" s="1">
-        <v>48986.771069</v>
+        <v>48986.771069000002</v>
       </c>
       <c r="G8" s="1">
         <v>13.607436</v>
       </c>
       <c r="H8" s="1">
-        <v>1263.900000</v>
+        <v>1263.9000000000001</v>
       </c>
       <c r="I8" s="1">
-        <v>-252.419000</v>
+        <v>-252.41900000000001</v>
       </c>
       <c r="J8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K8" s="1">
-        <v>48997.240132</v>
+        <v>48997.240131999999</v>
       </c>
       <c r="L8" s="1">
         <v>13.610344</v>
       </c>
       <c r="M8" s="1">
-        <v>1301.280000</v>
+        <v>1301.28</v>
       </c>
       <c r="N8" s="1">
-        <v>-197.553000</v>
+        <v>-197.553</v>
       </c>
       <c r="O8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P8" s="1">
         <v>49008.387682</v>
@@ -2068,225 +2484,225 @@
         <v>13.613441</v>
       </c>
       <c r="R8" s="1">
-        <v>1313.970000</v>
+        <v>1313.97</v>
       </c>
       <c r="S8" s="1">
-        <v>-181.149000</v>
+        <v>-181.149</v>
       </c>
       <c r="T8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U8" s="1">
         <v>49018.911795</v>
       </c>
       <c r="V8" s="1">
-        <v>13.616364</v>
+        <v>13.616364000000001</v>
       </c>
       <c r="W8" s="1">
-        <v>1328.200000</v>
+        <v>1328.2</v>
       </c>
       <c r="X8" s="1">
-        <v>-169.036000</v>
+        <v>-169.036</v>
       </c>
       <c r="Y8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z8" s="1">
         <v>49029.753846</v>
       </c>
       <c r="AA8" s="1">
-        <v>13.619376</v>
+        <v>13.619376000000001</v>
       </c>
       <c r="AB8" s="1">
-        <v>1346.200000</v>
+        <v>1346.2</v>
       </c>
       <c r="AC8" s="1">
-        <v>-167.606000</v>
+        <v>-167.60599999999999</v>
       </c>
       <c r="AD8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE8" s="1">
-        <v>49040.309208</v>
+        <v>49040.309207999999</v>
       </c>
       <c r="AF8" s="1">
         <v>13.622308</v>
       </c>
       <c r="AG8" s="1">
-        <v>1359.230000</v>
+        <v>1359.23</v>
       </c>
       <c r="AH8" s="1">
-        <v>-177.535000</v>
+        <v>-177.535</v>
       </c>
       <c r="AI8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ8" s="1">
-        <v>49050.774334</v>
+        <v>49050.774334000002</v>
       </c>
       <c r="AK8" s="1">
-        <v>13.625215</v>
+        <v>13.625215000000001</v>
       </c>
       <c r="AL8" s="1">
-        <v>1380.220000</v>
+        <v>1380.22</v>
       </c>
       <c r="AM8" s="1">
-        <v>-207.849000</v>
+        <v>-207.84899999999999</v>
       </c>
       <c r="AN8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO8" s="1">
-        <v>49061.415963</v>
+        <v>49061.415962999999</v>
       </c>
       <c r="AP8" s="1">
         <v>13.628171</v>
       </c>
       <c r="AQ8" s="1">
-        <v>1402.050000</v>
+        <v>1402.05</v>
       </c>
       <c r="AR8" s="1">
-        <v>-251.662000</v>
+        <v>-251.66200000000001</v>
       </c>
       <c r="AS8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT8" s="1">
-        <v>49072.507048</v>
+        <v>49072.507047999999</v>
       </c>
       <c r="AU8" s="1">
         <v>13.631252</v>
       </c>
       <c r="AV8" s="1">
-        <v>1426.730000</v>
+        <v>1426.73</v>
       </c>
       <c r="AW8" s="1">
-        <v>-311.586000</v>
+        <v>-311.58600000000001</v>
       </c>
       <c r="AX8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY8" s="1">
-        <v>49083.558863</v>
+        <v>49083.558862999998</v>
       </c>
       <c r="AZ8" s="1">
-        <v>13.634322</v>
+        <v>13.634321999999999</v>
       </c>
       <c r="BA8" s="1">
-        <v>1446.140000</v>
+        <v>1446.14</v>
       </c>
       <c r="BB8" s="1">
-        <v>-363.466000</v>
+        <v>-363.46600000000001</v>
       </c>
       <c r="BC8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD8" s="1">
-        <v>49094.523933</v>
+        <v>49094.523932999997</v>
       </c>
       <c r="BE8" s="1">
         <v>13.637368</v>
       </c>
       <c r="BF8" s="1">
-        <v>1531.690000</v>
+        <v>1531.69</v>
       </c>
       <c r="BG8" s="1">
-        <v>-610.744000</v>
+        <v>-610.74400000000003</v>
       </c>
       <c r="BH8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI8" s="1">
-        <v>49105.267264</v>
+        <v>49105.267264000002</v>
       </c>
       <c r="BJ8" s="1">
         <v>13.640352</v>
       </c>
       <c r="BK8" s="1">
-        <v>1686.200000</v>
+        <v>1686.2</v>
       </c>
       <c r="BL8" s="1">
-        <v>-1053.530000</v>
+        <v>-1053.53</v>
       </c>
       <c r="BM8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN8" s="1">
-        <v>49116.882610</v>
+        <v>49116.882610000001</v>
       </c>
       <c r="BO8" s="1">
-        <v>13.643579</v>
+        <v>13.643579000000001</v>
       </c>
       <c r="BP8" s="1">
-        <v>1980.300000</v>
+        <v>1980.3</v>
       </c>
       <c r="BQ8" s="1">
-        <v>-1819.860000</v>
+        <v>-1819.86</v>
       </c>
       <c r="BR8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS8" s="1">
-        <v>49127.601653</v>
+        <v>49127.601652999998</v>
       </c>
       <c r="BT8" s="1">
         <v>13.646556</v>
       </c>
       <c r="BU8" s="1">
-        <v>2364.940000</v>
+        <v>2364.94</v>
       </c>
       <c r="BV8" s="1">
-        <v>-2703.320000</v>
+        <v>-2703.32</v>
       </c>
       <c r="BW8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX8" s="1">
-        <v>49138.384149</v>
+        <v>49138.384148999998</v>
       </c>
       <c r="BY8" s="1">
-        <v>13.649551</v>
+        <v>13.649551000000001</v>
       </c>
       <c r="BZ8" s="1">
-        <v>2850.150000</v>
+        <v>2850.15</v>
       </c>
       <c r="CA8" s="1">
-        <v>-3668.130000</v>
+        <v>-3668.13</v>
       </c>
       <c r="CB8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC8" s="1">
         <v>49149.881942</v>
       </c>
       <c r="CD8" s="1">
-        <v>13.652745</v>
+        <v>13.652744999999999</v>
       </c>
       <c r="CE8" s="1">
-        <v>4256.530000</v>
+        <v>4256.53</v>
       </c>
       <c r="CF8" s="1">
-        <v>-5987.740000</v>
+        <v>-5987.74</v>
       </c>
       <c r="CG8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:85">
       <c r="A9" s="1">
         <v>48977.031595</v>
       </c>
       <c r="B9" s="1">
-        <v>13.604731</v>
+        <v>13.604730999999999</v>
       </c>
       <c r="C9" s="1">
-        <v>1239.100000</v>
+        <v>1239.0999999999999</v>
       </c>
       <c r="D9" s="1">
-        <v>-287.967000</v>
+        <v>-287.96699999999998</v>
       </c>
       <c r="E9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F9" s="1">
         <v>48987.427742</v>
@@ -2295,874 +2711,874 @@
         <v>13.607619</v>
       </c>
       <c r="H9" s="1">
-        <v>1264.090000</v>
+        <v>1264.0899999999999</v>
       </c>
       <c r="I9" s="1">
-        <v>-252.172000</v>
+        <v>-252.172</v>
       </c>
       <c r="J9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K9" s="1">
-        <v>48997.898887</v>
+        <v>48997.898887000003</v>
       </c>
       <c r="L9" s="1">
-        <v>13.610527</v>
+        <v>13.610526999999999</v>
       </c>
       <c r="M9" s="1">
-        <v>1301.110000</v>
+        <v>1301.1099999999999</v>
       </c>
       <c r="N9" s="1">
-        <v>-197.374000</v>
+        <v>-197.374</v>
       </c>
       <c r="O9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P9" s="1">
-        <v>49008.766624</v>
+        <v>49008.766624000004</v>
       </c>
       <c r="Q9" s="1">
-        <v>13.613546</v>
+        <v>13.613545999999999</v>
       </c>
       <c r="R9" s="1">
-        <v>1313.990000</v>
+        <v>1313.99</v>
       </c>
       <c r="S9" s="1">
-        <v>-181.102000</v>
+        <v>-181.102</v>
       </c>
       <c r="T9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U9" s="1">
-        <v>49019.279827</v>
+        <v>49019.279826999998</v>
       </c>
       <c r="V9" s="1">
         <v>13.616467</v>
       </c>
       <c r="W9" s="1">
-        <v>1327.960000</v>
+        <v>1327.96</v>
       </c>
       <c r="X9" s="1">
-        <v>-168.892000</v>
+        <v>-168.892</v>
       </c>
       <c r="Y9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z9" s="1">
-        <v>49030.101044</v>
+        <v>49030.101044000003</v>
       </c>
       <c r="AA9" s="1">
-        <v>13.619473</v>
+        <v>13.619472999999999</v>
       </c>
       <c r="AB9" s="1">
-        <v>1346.130000</v>
+        <v>1346.13</v>
       </c>
       <c r="AC9" s="1">
-        <v>-167.578000</v>
+        <v>-167.578</v>
       </c>
       <c r="AD9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE9" s="1">
-        <v>49040.650455</v>
+        <v>49040.650455000003</v>
       </c>
       <c r="AF9" s="1">
         <v>13.622403</v>
       </c>
       <c r="AG9" s="1">
-        <v>1359.380000</v>
+        <v>1359.38</v>
       </c>
       <c r="AH9" s="1">
-        <v>-177.651000</v>
+        <v>-177.65100000000001</v>
       </c>
       <c r="AI9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ9" s="1">
-        <v>49051.124986</v>
+        <v>49051.124986000003</v>
       </c>
       <c r="AK9" s="1">
-        <v>13.625312</v>
+        <v>13.625311999999999</v>
       </c>
       <c r="AL9" s="1">
-        <v>1380.260000</v>
+        <v>1380.26</v>
       </c>
       <c r="AM9" s="1">
-        <v>-207.813000</v>
+        <v>-207.81299999999999</v>
       </c>
       <c r="AN9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO9" s="1">
-        <v>49061.836074</v>
+        <v>49061.836073999999</v>
       </c>
       <c r="AP9" s="1">
         <v>13.628288</v>
       </c>
       <c r="AQ9" s="1">
-        <v>1402.050000</v>
+        <v>1402.05</v>
       </c>
       <c r="AR9" s="1">
-        <v>-251.745000</v>
+        <v>-251.745</v>
       </c>
       <c r="AS9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT9" s="1">
-        <v>49072.817500</v>
+        <v>49072.817499999997</v>
       </c>
       <c r="AU9" s="1">
         <v>13.631338</v>
       </c>
       <c r="AV9" s="1">
-        <v>1426.710000</v>
+        <v>1426.71</v>
       </c>
       <c r="AW9" s="1">
-        <v>-311.529000</v>
+        <v>-311.529</v>
       </c>
       <c r="AX9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY9" s="1">
-        <v>49083.851007</v>
+        <v>49083.851006999997</v>
       </c>
       <c r="AZ9" s="1">
-        <v>13.634403</v>
+        <v>13.634403000000001</v>
       </c>
       <c r="BA9" s="1">
-        <v>1446.160000</v>
+        <v>1446.16</v>
       </c>
       <c r="BB9" s="1">
-        <v>-363.496000</v>
+        <v>-363.49599999999998</v>
       </c>
       <c r="BC9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD9" s="1">
-        <v>49094.890300</v>
+        <v>49094.890299999999</v>
       </c>
       <c r="BE9" s="1">
-        <v>13.637470</v>
+        <v>13.63747</v>
       </c>
       <c r="BF9" s="1">
-        <v>1531.710000</v>
+        <v>1531.71</v>
       </c>
       <c r="BG9" s="1">
-        <v>-610.686000</v>
+        <v>-610.68600000000004</v>
       </c>
       <c r="BH9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI9" s="1">
-        <v>49105.644224</v>
+        <v>49105.644224000003</v>
       </c>
       <c r="BJ9" s="1">
         <v>13.640457</v>
       </c>
       <c r="BK9" s="1">
-        <v>1686.140000</v>
+        <v>1686.14</v>
       </c>
       <c r="BL9" s="1">
-        <v>-1053.410000</v>
+        <v>-1053.4100000000001</v>
       </c>
       <c r="BM9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN9" s="1">
-        <v>49117.279909</v>
+        <v>49117.279908999997</v>
       </c>
       <c r="BO9" s="1">
         <v>13.643689</v>
       </c>
       <c r="BP9" s="1">
-        <v>1980.310000</v>
+        <v>1980.31</v>
       </c>
       <c r="BQ9" s="1">
-        <v>-1819.800000</v>
+        <v>-1819.8</v>
       </c>
       <c r="BR9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS9" s="1">
-        <v>49128.028186</v>
+        <v>49128.028186000003</v>
       </c>
       <c r="BT9" s="1">
-        <v>13.646674</v>
+        <v>13.646674000000001</v>
       </c>
       <c r="BU9" s="1">
-        <v>2364.610000</v>
+        <v>2364.61</v>
       </c>
       <c r="BV9" s="1">
-        <v>-2704.450000</v>
+        <v>-2704.45</v>
       </c>
       <c r="BW9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX9" s="1">
-        <v>49138.798836</v>
+        <v>49138.798836000002</v>
       </c>
       <c r="BY9" s="1">
         <v>13.649666</v>
       </c>
       <c r="BZ9" s="1">
-        <v>2849.930000</v>
+        <v>2849.93</v>
       </c>
       <c r="CA9" s="1">
-        <v>-3668.070000</v>
+        <v>-3668.07</v>
       </c>
       <c r="CB9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC9" s="1">
-        <v>49150.414118</v>
+        <v>49150.414118000001</v>
       </c>
       <c r="CD9" s="1">
-        <v>13.652893</v>
+        <v>13.652893000000001</v>
       </c>
       <c r="CE9" s="1">
-        <v>4268.850000</v>
+        <v>4268.8500000000004</v>
       </c>
       <c r="CF9" s="1">
-        <v>-5994.210000</v>
+        <v>-5994.21</v>
       </c>
       <c r="CG9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:85">
       <c r="A10" s="1">
-        <v>48977.694747</v>
+        <v>48977.694747000001</v>
       </c>
       <c r="B10" s="1">
         <v>13.604915</v>
       </c>
       <c r="C10" s="1">
-        <v>1238.920000</v>
+        <v>1238.92</v>
       </c>
       <c r="D10" s="1">
-        <v>-288.357000</v>
+        <v>-288.35700000000003</v>
       </c>
       <c r="E10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F10" s="1">
-        <v>48987.804746</v>
+        <v>48987.804746000002</v>
       </c>
       <c r="G10" s="1">
-        <v>13.607724</v>
+        <v>13.607723999999999</v>
       </c>
       <c r="H10" s="1">
-        <v>1263.610000</v>
+        <v>1263.6099999999999</v>
       </c>
       <c r="I10" s="1">
-        <v>-252.398000</v>
+        <v>-252.398</v>
       </c>
       <c r="J10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K10" s="1">
-        <v>48998.278222</v>
+        <v>48998.278222000001</v>
       </c>
       <c r="L10" s="1">
         <v>13.610633</v>
       </c>
       <c r="M10" s="1">
-        <v>1301.270000</v>
+        <v>1301.27</v>
       </c>
       <c r="N10" s="1">
-        <v>-197.445000</v>
+        <v>-197.44499999999999</v>
       </c>
       <c r="O10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P10" s="1">
-        <v>49009.114820</v>
+        <v>49009.114820000003</v>
       </c>
       <c r="Q10" s="1">
         <v>13.613643</v>
       </c>
       <c r="R10" s="1">
-        <v>1314.020000</v>
+        <v>1314.02</v>
       </c>
       <c r="S10" s="1">
-        <v>-181.042000</v>
+        <v>-181.042</v>
       </c>
       <c r="T10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U10" s="1">
-        <v>49019.624547</v>
+        <v>49019.624546999999</v>
       </c>
       <c r="V10" s="1">
         <v>13.616562</v>
       </c>
       <c r="W10" s="1">
-        <v>1328.160000</v>
+        <v>1328.16</v>
       </c>
       <c r="X10" s="1">
-        <v>-168.875000</v>
+        <v>-168.875</v>
       </c>
       <c r="Y10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z10" s="1">
-        <v>49030.448740</v>
+        <v>49030.44874</v>
       </c>
       <c r="AA10" s="1">
         <v>13.619569</v>
       </c>
       <c r="AB10" s="1">
-        <v>1346.040000</v>
+        <v>1346.04</v>
       </c>
       <c r="AC10" s="1">
-        <v>-167.654000</v>
+        <v>-167.654</v>
       </c>
       <c r="AD10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE10" s="1">
-        <v>49041.065606</v>
+        <v>49041.065605999996</v>
       </c>
       <c r="AF10" s="1">
-        <v>13.622518</v>
+        <v>13.622517999999999</v>
       </c>
       <c r="AG10" s="1">
-        <v>1359.380000</v>
+        <v>1359.38</v>
       </c>
       <c r="AH10" s="1">
-        <v>-178.009000</v>
+        <v>-178.00899999999999</v>
       </c>
       <c r="AI10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ10" s="1">
-        <v>49051.545081</v>
+        <v>49051.545080999997</v>
       </c>
       <c r="AK10" s="1">
         <v>13.625429</v>
       </c>
       <c r="AL10" s="1">
-        <v>1380.230000</v>
+        <v>1380.23</v>
       </c>
       <c r="AM10" s="1">
-        <v>-207.803000</v>
+        <v>-207.803</v>
       </c>
       <c r="AN10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO10" s="1">
-        <v>49062.139130</v>
+        <v>49062.139130000003</v>
       </c>
       <c r="AP10" s="1">
-        <v>13.628372</v>
+        <v>13.628372000000001</v>
       </c>
       <c r="AQ10" s="1">
-        <v>1402.020000</v>
+        <v>1402.02</v>
       </c>
       <c r="AR10" s="1">
-        <v>-251.674000</v>
+        <v>-251.67400000000001</v>
       </c>
       <c r="AS10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT10" s="1">
-        <v>49073.183083</v>
+        <v>49073.183083000004</v>
       </c>
       <c r="AU10" s="1">
-        <v>13.631440</v>
+        <v>13.63144</v>
       </c>
       <c r="AV10" s="1">
-        <v>1426.720000</v>
+        <v>1426.72</v>
       </c>
       <c r="AW10" s="1">
-        <v>-311.574000</v>
+        <v>-311.57400000000001</v>
       </c>
       <c r="AX10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY10" s="1">
-        <v>49084.211101</v>
+        <v>49084.211101000001</v>
       </c>
       <c r="AZ10" s="1">
         <v>13.634503</v>
       </c>
       <c r="BA10" s="1">
-        <v>1446.170000</v>
+        <v>1446.17</v>
       </c>
       <c r="BB10" s="1">
-        <v>-363.525000</v>
+        <v>-363.52499999999998</v>
       </c>
       <c r="BC10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD10" s="1">
-        <v>49095.250590</v>
+        <v>49095.250590000003</v>
       </c>
       <c r="BE10" s="1">
-        <v>13.637570</v>
+        <v>13.63757</v>
       </c>
       <c r="BF10" s="1">
-        <v>1531.650000</v>
+        <v>1531.65</v>
       </c>
       <c r="BG10" s="1">
-        <v>-610.763000</v>
+        <v>-610.76300000000003</v>
       </c>
       <c r="BH10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI10" s="1">
-        <v>49106.392191</v>
+        <v>49106.392190999999</v>
       </c>
       <c r="BJ10" s="1">
-        <v>13.640664</v>
+        <v>13.640663999999999</v>
       </c>
       <c r="BK10" s="1">
-        <v>1686.140000</v>
+        <v>1686.14</v>
       </c>
       <c r="BL10" s="1">
-        <v>-1053.390000</v>
+        <v>-1053.3900000000001</v>
       </c>
       <c r="BM10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN10" s="1">
-        <v>49117.701014</v>
+        <v>49117.701013999998</v>
       </c>
       <c r="BO10" s="1">
         <v>13.643806</v>
       </c>
       <c r="BP10" s="1">
-        <v>1980.220000</v>
+        <v>1980.22</v>
       </c>
       <c r="BQ10" s="1">
-        <v>-1819.930000</v>
+        <v>-1819.93</v>
       </c>
       <c r="BR10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS10" s="1">
         <v>49128.437179</v>
       </c>
       <c r="BT10" s="1">
-        <v>13.646788</v>
+        <v>13.646788000000001</v>
       </c>
       <c r="BU10" s="1">
-        <v>2364.990000</v>
+        <v>2364.9899999999998</v>
       </c>
       <c r="BV10" s="1">
-        <v>-2705.200000</v>
+        <v>-2705.2</v>
       </c>
       <c r="BW10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX10" s="1">
-        <v>49139.212996</v>
+        <v>49139.212996000002</v>
       </c>
       <c r="BY10" s="1">
-        <v>13.649781</v>
+        <v>13.649781000000001</v>
       </c>
       <c r="BZ10" s="1">
-        <v>2849.040000</v>
+        <v>2849.04</v>
       </c>
       <c r="CA10" s="1">
-        <v>-3667.640000</v>
+        <v>-3667.64</v>
       </c>
       <c r="CB10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC10" s="1">
-        <v>49150.930452</v>
+        <v>49150.930452000001</v>
       </c>
       <c r="CD10" s="1">
         <v>13.653036</v>
       </c>
       <c r="CE10" s="1">
-        <v>4273.400000</v>
+        <v>4273.3999999999996</v>
       </c>
       <c r="CF10" s="1">
-        <v>-5980.720000</v>
+        <v>-5980.72</v>
       </c>
       <c r="CG10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:85">
       <c r="A11" s="1">
-        <v>48978.066764</v>
+        <v>48978.066764000003</v>
       </c>
       <c r="B11" s="1">
         <v>13.605019</v>
       </c>
       <c r="C11" s="1">
-        <v>1238.840000</v>
+        <v>1238.8399999999999</v>
       </c>
       <c r="D11" s="1">
-        <v>-288.080000</v>
+        <v>-288.08</v>
       </c>
       <c r="E11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F11" s="1">
-        <v>48988.153883</v>
+        <v>48988.153882999999</v>
       </c>
       <c r="G11" s="1">
         <v>13.607821</v>
       </c>
       <c r="H11" s="1">
-        <v>1263.470000</v>
+        <v>1263.47</v>
       </c>
       <c r="I11" s="1">
-        <v>-251.559000</v>
+        <v>-251.559</v>
       </c>
       <c r="J11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K11" s="1">
-        <v>48998.621486</v>
+        <v>48998.621485999996</v>
       </c>
       <c r="L11" s="1">
         <v>13.610728</v>
       </c>
       <c r="M11" s="1">
-        <v>1301.190000</v>
+        <v>1301.19</v>
       </c>
       <c r="N11" s="1">
-        <v>-197.360000</v>
+        <v>-197.36</v>
       </c>
       <c r="O11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P11" s="1">
         <v>49009.461055</v>
       </c>
       <c r="Q11" s="1">
-        <v>13.613739</v>
+        <v>13.613739000000001</v>
       </c>
       <c r="R11" s="1">
-        <v>1314.080000</v>
+        <v>1314.08</v>
       </c>
       <c r="S11" s="1">
-        <v>-181.169000</v>
+        <v>-181.16900000000001</v>
       </c>
       <c r="T11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U11" s="1">
-        <v>49020.230337</v>
+        <v>49020.230337000001</v>
       </c>
       <c r="V11" s="1">
         <v>13.616731</v>
       </c>
       <c r="W11" s="1">
-        <v>1328.040000</v>
+        <v>1328.04</v>
       </c>
       <c r="X11" s="1">
-        <v>-168.669000</v>
+        <v>-168.66900000000001</v>
       </c>
       <c r="Y11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z11" s="1">
-        <v>49030.866899</v>
+        <v>49030.866899000001</v>
       </c>
       <c r="AA11" s="1">
         <v>13.619685</v>
       </c>
       <c r="AB11" s="1">
-        <v>1346.080000</v>
+        <v>1346.08</v>
       </c>
       <c r="AC11" s="1">
-        <v>-167.619000</v>
+        <v>-167.619</v>
       </c>
       <c r="AD11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE11" s="1">
-        <v>49041.340917</v>
+        <v>49041.340917000001</v>
       </c>
       <c r="AF11" s="1">
         <v>13.622595</v>
       </c>
       <c r="AG11" s="1">
-        <v>1359.550000</v>
+        <v>1359.55</v>
       </c>
       <c r="AH11" s="1">
-        <v>-178.053000</v>
+        <v>-178.053</v>
       </c>
       <c r="AI11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ11" s="1">
-        <v>49051.826325</v>
+        <v>49051.826325000002</v>
       </c>
       <c r="AK11" s="1">
-        <v>13.625507</v>
+        <v>13.625507000000001</v>
       </c>
       <c r="AL11" s="1">
-        <v>1380.240000</v>
+        <v>1380.24</v>
       </c>
       <c r="AM11" s="1">
-        <v>-207.809000</v>
+        <v>-207.809</v>
       </c>
       <c r="AN11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO11" s="1">
-        <v>49062.499723</v>
+        <v>49062.499723000001</v>
       </c>
       <c r="AP11" s="1">
         <v>13.628472</v>
       </c>
       <c r="AQ11" s="1">
-        <v>1402.050000</v>
+        <v>1402.05</v>
       </c>
       <c r="AR11" s="1">
-        <v>-251.715000</v>
+        <v>-251.715</v>
       </c>
       <c r="AS11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT11" s="1">
-        <v>49073.547116</v>
+        <v>49073.547116000002</v>
       </c>
       <c r="AU11" s="1">
         <v>13.631541</v>
       </c>
       <c r="AV11" s="1">
-        <v>1426.760000</v>
+        <v>1426.76</v>
       </c>
       <c r="AW11" s="1">
-        <v>-311.542000</v>
+        <v>-311.54199999999997</v>
       </c>
       <c r="AX11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY11" s="1">
-        <v>49084.571692</v>
+        <v>49084.571691999998</v>
       </c>
       <c r="AZ11" s="1">
         <v>13.634603</v>
       </c>
       <c r="BA11" s="1">
-        <v>1446.160000</v>
+        <v>1446.16</v>
       </c>
       <c r="BB11" s="1">
-        <v>-363.504000</v>
+        <v>-363.50400000000002</v>
       </c>
       <c r="BC11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD11" s="1">
-        <v>49095.972239</v>
+        <v>49095.972239000002</v>
       </c>
       <c r="BE11" s="1">
-        <v>13.637770</v>
+        <v>13.63777</v>
       </c>
       <c r="BF11" s="1">
-        <v>1531.700000</v>
+        <v>1531.7</v>
       </c>
       <c r="BG11" s="1">
-        <v>-610.727000</v>
+        <v>-610.72699999999998</v>
       </c>
       <c r="BH11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI11" s="1">
-        <v>49106.766671</v>
+        <v>49106.766670999998</v>
       </c>
       <c r="BJ11" s="1">
-        <v>13.640769</v>
+        <v>13.640769000000001</v>
       </c>
       <c r="BK11" s="1">
-        <v>1686.160000</v>
+        <v>1686.16</v>
       </c>
       <c r="BL11" s="1">
-        <v>-1053.420000</v>
+        <v>-1053.42</v>
       </c>
       <c r="BM11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN11" s="1">
-        <v>49118.098272</v>
+        <v>49118.098272000003</v>
       </c>
       <c r="BO11" s="1">
-        <v>13.643916</v>
+        <v>13.643916000000001</v>
       </c>
       <c r="BP11" s="1">
-        <v>1980.210000</v>
+        <v>1980.21</v>
       </c>
       <c r="BQ11" s="1">
-        <v>-1819.710000</v>
+        <v>-1819.71</v>
       </c>
       <c r="BR11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS11" s="1">
-        <v>49128.853039</v>
+        <v>49128.853039000001</v>
       </c>
       <c r="BT11" s="1">
-        <v>13.646904</v>
+        <v>13.646903999999999</v>
       </c>
       <c r="BU11" s="1">
-        <v>2365.920000</v>
+        <v>2365.92</v>
       </c>
       <c r="BV11" s="1">
-        <v>-2705.950000</v>
+        <v>-2705.95</v>
       </c>
       <c r="BW11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX11" s="1">
-        <v>49139.980275</v>
+        <v>49139.980275000002</v>
       </c>
       <c r="BY11" s="1">
-        <v>13.649995</v>
+        <v>13.649995000000001</v>
       </c>
       <c r="BZ11" s="1">
-        <v>2849.600000</v>
+        <v>2849.6</v>
       </c>
       <c r="CA11" s="1">
-        <v>-3667.390000</v>
+        <v>-3667.39</v>
       </c>
       <c r="CB11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC11" s="1">
-        <v>49151.756293</v>
+        <v>49151.756292999999</v>
       </c>
       <c r="CD11" s="1">
         <v>13.653266</v>
       </c>
       <c r="CE11" s="1">
-        <v>4257.480000</v>
+        <v>4257.4799999999996</v>
       </c>
       <c r="CF11" s="1">
-        <v>-5976.950000</v>
+        <v>-5976.95</v>
       </c>
       <c r="CG11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:85">
       <c r="A12" s="1">
         <v>48978.407497</v>
       </c>
       <c r="B12" s="1">
-        <v>13.605113</v>
+        <v>13.605112999999999</v>
       </c>
       <c r="C12" s="1">
-        <v>1239.210000</v>
+        <v>1239.21</v>
       </c>
       <c r="D12" s="1">
-        <v>-288.550000</v>
+        <v>-288.55</v>
       </c>
       <c r="E12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F12" s="1">
-        <v>48988.498636</v>
+        <v>48988.498635999997</v>
       </c>
       <c r="G12" s="1">
-        <v>13.607916</v>
+        <v>13.607915999999999</v>
       </c>
       <c r="H12" s="1">
-        <v>1263.450000</v>
+        <v>1263.45</v>
       </c>
       <c r="I12" s="1">
-        <v>-252.707000</v>
+        <v>-252.70699999999999</v>
       </c>
       <c r="J12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K12" s="1">
-        <v>48998.969150</v>
+        <v>48998.969149999997</v>
       </c>
       <c r="L12" s="1">
         <v>13.610825</v>
       </c>
       <c r="M12" s="1">
-        <v>1301.210000</v>
+        <v>1301.21</v>
       </c>
       <c r="N12" s="1">
-        <v>-197.630000</v>
+        <v>-197.63</v>
       </c>
       <c r="O12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P12" s="1">
-        <v>49009.888080</v>
+        <v>49009.888079999997</v>
       </c>
       <c r="Q12" s="1">
         <v>13.613858</v>
       </c>
       <c r="R12" s="1">
-        <v>1314.020000</v>
+        <v>1314.02</v>
       </c>
       <c r="S12" s="1">
-        <v>-181.188000</v>
+        <v>-181.18799999999999</v>
       </c>
       <c r="T12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U12" s="1">
-        <v>49020.654769</v>
+        <v>49020.654769000001</v>
       </c>
       <c r="V12" s="1">
         <v>13.616849</v>
       </c>
       <c r="W12" s="1">
-        <v>1328.070000</v>
+        <v>1328.07</v>
       </c>
       <c r="X12" s="1">
-        <v>-168.704000</v>
+        <v>-168.70400000000001</v>
       </c>
       <c r="Y12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z12" s="1">
-        <v>49031.161491</v>
+        <v>49031.161490999999</v>
       </c>
       <c r="AA12" s="1">
         <v>13.619767</v>
       </c>
       <c r="AB12" s="1">
-        <v>1346.070000</v>
+        <v>1346.07</v>
       </c>
       <c r="AC12" s="1">
-        <v>-167.672000</v>
+        <v>-167.672</v>
       </c>
       <c r="AD12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE12" s="1">
-        <v>49041.684653</v>
+        <v>49041.684652999997</v>
       </c>
       <c r="AF12" s="1">
-        <v>13.622690</v>
+        <v>13.62269</v>
       </c>
       <c r="AG12" s="1">
-        <v>1359.420000</v>
+        <v>1359.42</v>
       </c>
       <c r="AH12" s="1">
-        <v>-177.705000</v>
+        <v>-177.70500000000001</v>
       </c>
       <c r="AI12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ12" s="1">
-        <v>49052.175991</v>
+        <v>49052.175990999996</v>
       </c>
       <c r="AK12" s="1">
-        <v>13.625604</v>
+        <v>13.625603999999999</v>
       </c>
       <c r="AL12" s="1">
-        <v>1380.250000</v>
+        <v>1380.25</v>
       </c>
       <c r="AM12" s="1">
-        <v>-207.823000</v>
+        <v>-207.82300000000001</v>
       </c>
       <c r="AN12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO12" s="1">
         <v>49062.857872</v>
@@ -3171,118 +3587,118 @@
         <v>13.628572</v>
       </c>
       <c r="AQ12" s="1">
-        <v>1402.050000</v>
+        <v>1402.05</v>
       </c>
       <c r="AR12" s="1">
-        <v>-251.713000</v>
+        <v>-251.71299999999999</v>
       </c>
       <c r="AS12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT12" s="1">
-        <v>49074.279210</v>
+        <v>49074.279210000001</v>
       </c>
       <c r="AU12" s="1">
-        <v>13.631744</v>
+        <v>13.631743999999999</v>
       </c>
       <c r="AV12" s="1">
-        <v>1426.760000</v>
+        <v>1426.76</v>
       </c>
       <c r="AW12" s="1">
-        <v>-311.583000</v>
+        <v>-311.58300000000003</v>
       </c>
       <c r="AX12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY12" s="1">
-        <v>49085.291023</v>
+        <v>49085.291022999998</v>
       </c>
       <c r="AZ12" s="1">
         <v>13.634803</v>
       </c>
       <c r="BA12" s="1">
-        <v>1446.140000</v>
+        <v>1446.14</v>
       </c>
       <c r="BB12" s="1">
-        <v>-363.474000</v>
+        <v>-363.47399999999999</v>
       </c>
       <c r="BC12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD12" s="1">
-        <v>49096.331836</v>
+        <v>49096.331835999998</v>
       </c>
       <c r="BE12" s="1">
-        <v>13.637870</v>
+        <v>13.637869999999999</v>
       </c>
       <c r="BF12" s="1">
-        <v>1531.680000</v>
+        <v>1531.68</v>
       </c>
       <c r="BG12" s="1">
-        <v>-610.732000</v>
+        <v>-610.73199999999997</v>
       </c>
       <c r="BH12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI12" s="1">
-        <v>49107.144662</v>
+        <v>49107.144661999999</v>
       </c>
       <c r="BJ12" s="1">
         <v>13.640874</v>
       </c>
       <c r="BK12" s="1">
-        <v>1686.090000</v>
+        <v>1686.09</v>
       </c>
       <c r="BL12" s="1">
-        <v>-1053.400000</v>
+        <v>-1053.4000000000001</v>
       </c>
       <c r="BM12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN12" s="1">
-        <v>49118.521546</v>
+        <v>49118.521546000004</v>
       </c>
       <c r="BO12" s="1">
         <v>13.644034</v>
       </c>
       <c r="BP12" s="1">
-        <v>1980.280000</v>
+        <v>1980.28</v>
       </c>
       <c r="BQ12" s="1">
-        <v>-1819.680000</v>
+        <v>-1819.68</v>
       </c>
       <c r="BR12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS12" s="1">
-        <v>49129.580161</v>
+        <v>49129.580160999998</v>
       </c>
       <c r="BT12" s="1">
-        <v>13.647106</v>
+        <v>13.647106000000001</v>
       </c>
       <c r="BU12" s="1">
-        <v>2366.800000</v>
+        <v>2366.8000000000002</v>
       </c>
       <c r="BV12" s="1">
-        <v>-2706.070000</v>
+        <v>-2706.07</v>
       </c>
       <c r="BW12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX12" s="1">
-        <v>49140.115685</v>
+        <v>49140.115684999997</v>
       </c>
       <c r="BY12" s="1">
-        <v>13.650032</v>
+        <v>13.650031999999999</v>
       </c>
       <c r="BZ12" s="1">
-        <v>2849.350000</v>
+        <v>2849.35</v>
       </c>
       <c r="CA12" s="1">
-        <v>-3667.330000</v>
+        <v>-3667.33</v>
       </c>
       <c r="CB12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC12" s="1">
         <v>49152.000323</v>
@@ -3291,225 +3707,225 @@
         <v>13.653333</v>
       </c>
       <c r="CE12" s="1">
-        <v>4265.080000</v>
+        <v>4265.08</v>
       </c>
       <c r="CF12" s="1">
-        <v>-5996.880000</v>
+        <v>-5996.88</v>
       </c>
       <c r="CG12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:85">
       <c r="A13" s="1">
-        <v>48978.750566</v>
+        <v>48978.750566000002</v>
       </c>
       <c r="B13" s="1">
-        <v>13.605208</v>
+        <v>13.605207999999999</v>
       </c>
       <c r="C13" s="1">
-        <v>1239.200000</v>
+        <v>1239.2</v>
       </c>
       <c r="D13" s="1">
-        <v>-288.502000</v>
+        <v>-288.50200000000001</v>
       </c>
       <c r="E13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F13" s="1">
-        <v>48988.913259</v>
+        <v>48988.913259000001</v>
       </c>
       <c r="G13" s="1">
         <v>13.608031</v>
       </c>
       <c r="H13" s="1">
-        <v>1264.870000</v>
+        <v>1264.8699999999999</v>
       </c>
       <c r="I13" s="1">
-        <v>-252.227000</v>
+        <v>-252.227</v>
       </c>
       <c r="J13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K13" s="1">
-        <v>48999.380334</v>
+        <v>48999.380334000001</v>
       </c>
       <c r="L13" s="1">
         <v>13.610939</v>
       </c>
       <c r="M13" s="1">
-        <v>1301.310000</v>
+        <v>1301.31</v>
       </c>
       <c r="N13" s="1">
-        <v>-197.736000</v>
+        <v>-197.73599999999999</v>
       </c>
       <c r="O13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P13" s="1">
-        <v>49010.159423</v>
+        <v>49010.159422999997</v>
       </c>
       <c r="Q13" s="1">
-        <v>13.613933</v>
+        <v>13.613932999999999</v>
       </c>
       <c r="R13" s="1">
-        <v>1314.000000</v>
+        <v>1314</v>
       </c>
       <c r="S13" s="1">
-        <v>-181.200000</v>
+        <v>-181.2</v>
       </c>
       <c r="T13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U13" s="1">
-        <v>49020.996805</v>
+        <v>49020.996805000002</v>
       </c>
       <c r="V13" s="1">
         <v>13.616944</v>
       </c>
       <c r="W13" s="1">
-        <v>1328.240000</v>
+        <v>1328.24</v>
       </c>
       <c r="X13" s="1">
-        <v>-168.843000</v>
+        <v>-168.84299999999999</v>
       </c>
       <c r="Y13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z13" s="1">
         <v>49031.512552</v>
       </c>
       <c r="AA13" s="1">
-        <v>13.619865</v>
+        <v>13.619865000000001</v>
       </c>
       <c r="AB13" s="1">
-        <v>1346.220000</v>
+        <v>1346.22</v>
       </c>
       <c r="AC13" s="1">
-        <v>-167.580000</v>
+        <v>-167.58</v>
       </c>
       <c r="AD13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE13" s="1">
-        <v>49042.025392</v>
+        <v>49042.025392000003</v>
       </c>
       <c r="AF13" s="1">
         <v>13.622785</v>
       </c>
       <c r="AG13" s="1">
-        <v>1359.370000</v>
+        <v>1359.37</v>
       </c>
       <c r="AH13" s="1">
-        <v>-177.689000</v>
+        <v>-177.68899999999999</v>
       </c>
       <c r="AI13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ13" s="1">
-        <v>49052.522200</v>
+        <v>49052.522199999999</v>
       </c>
       <c r="AK13" s="1">
-        <v>13.625701</v>
+        <v>13.625700999999999</v>
       </c>
       <c r="AL13" s="1">
-        <v>1380.210000</v>
+        <v>1380.21</v>
       </c>
       <c r="AM13" s="1">
-        <v>-207.826000</v>
+        <v>-207.82599999999999</v>
       </c>
       <c r="AN13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO13" s="1">
-        <v>49063.579017</v>
+        <v>49063.579016999996</v>
       </c>
       <c r="AP13" s="1">
         <v>13.628772</v>
       </c>
       <c r="AQ13" s="1">
-        <v>1402.040000</v>
+        <v>1402.04</v>
       </c>
       <c r="AR13" s="1">
-        <v>-251.712000</v>
+        <v>-251.71199999999999</v>
       </c>
       <c r="AS13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT13" s="1">
-        <v>49074.642039</v>
+        <v>49074.642038999998</v>
       </c>
       <c r="AU13" s="1">
         <v>13.631845</v>
       </c>
       <c r="AV13" s="1">
-        <v>1426.740000</v>
+        <v>1426.74</v>
       </c>
       <c r="AW13" s="1">
-        <v>-311.549000</v>
+        <v>-311.54899999999998</v>
       </c>
       <c r="AX13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY13" s="1">
-        <v>49085.657933</v>
+        <v>49085.657933000002</v>
       </c>
       <c r="AZ13" s="1">
         <v>13.634905</v>
       </c>
       <c r="BA13" s="1">
-        <v>1446.120000</v>
+        <v>1446.12</v>
       </c>
       <c r="BB13" s="1">
-        <v>-363.481000</v>
+        <v>-363.48099999999999</v>
       </c>
       <c r="BC13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD13" s="1">
-        <v>49096.695900</v>
+        <v>49096.695899999999</v>
       </c>
       <c r="BE13" s="1">
         <v>13.637971</v>
       </c>
       <c r="BF13" s="1">
-        <v>1531.660000</v>
+        <v>1531.66</v>
       </c>
       <c r="BG13" s="1">
-        <v>-610.739000</v>
+        <v>-610.73900000000003</v>
       </c>
       <c r="BH13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI13" s="1">
-        <v>49107.841999</v>
+        <v>49107.841998999997</v>
       </c>
       <c r="BJ13" s="1">
         <v>13.641067</v>
       </c>
       <c r="BK13" s="1">
-        <v>1686.150000</v>
+        <v>1686.15</v>
       </c>
       <c r="BL13" s="1">
-        <v>-1053.320000</v>
+        <v>-1053.32</v>
       </c>
       <c r="BM13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN13" s="1">
-        <v>49119.226212</v>
+        <v>49119.226212000001</v>
       </c>
       <c r="BO13" s="1">
-        <v>13.644230</v>
+        <v>13.64423</v>
       </c>
       <c r="BP13" s="1">
-        <v>1980.210000</v>
+        <v>1980.21</v>
       </c>
       <c r="BQ13" s="1">
-        <v>-1819.830000</v>
+        <v>-1819.83</v>
       </c>
       <c r="BR13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS13" s="1">
         <v>49129.696721</v>
@@ -3518,332 +3934,332 @@
         <v>13.647138</v>
       </c>
       <c r="BU13" s="1">
-        <v>2367.970000</v>
+        <v>2367.9699999999998</v>
       </c>
       <c r="BV13" s="1">
-        <v>-2705.990000</v>
+        <v>-2705.99</v>
       </c>
       <c r="BW13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX13" s="1">
         <v>49140.540299</v>
       </c>
       <c r="BY13" s="1">
-        <v>13.650150</v>
+        <v>13.65015</v>
       </c>
       <c r="BZ13" s="1">
-        <v>2849.330000</v>
+        <v>2849.33</v>
       </c>
       <c r="CA13" s="1">
-        <v>-3667.720000</v>
+        <v>-3667.72</v>
       </c>
       <c r="CB13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC13" s="1">
-        <v>49152.535123</v>
+        <v>49152.535123000001</v>
       </c>
       <c r="CD13" s="1">
         <v>13.653482</v>
       </c>
       <c r="CE13" s="1">
-        <v>4270.890000</v>
+        <v>4270.8900000000003</v>
       </c>
       <c r="CF13" s="1">
-        <v>-5977.410000</v>
+        <v>-5977.41</v>
       </c>
       <c r="CG13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:85">
       <c r="A14" s="1">
-        <v>48979.172858</v>
+        <v>48979.172857999998</v>
       </c>
       <c r="B14" s="1">
         <v>13.605326</v>
       </c>
       <c r="C14" s="1">
-        <v>1238.950000</v>
+        <v>1238.95</v>
       </c>
       <c r="D14" s="1">
-        <v>-288.300000</v>
+        <v>-288.3</v>
       </c>
       <c r="E14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F14" s="1">
-        <v>48989.191050</v>
+        <v>48989.191050000001</v>
       </c>
       <c r="G14" s="1">
-        <v>13.608109</v>
+        <v>13.608109000000001</v>
       </c>
       <c r="H14" s="1">
-        <v>1264.160000</v>
+        <v>1264.1600000000001</v>
       </c>
       <c r="I14" s="1">
-        <v>-252.261000</v>
+        <v>-252.261</v>
       </c>
       <c r="J14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K14" s="1">
-        <v>48999.660573</v>
+        <v>48999.660573000001</v>
       </c>
       <c r="L14" s="1">
         <v>13.611017</v>
       </c>
       <c r="M14" s="1">
-        <v>1301.200000</v>
+        <v>1301.2</v>
       </c>
       <c r="N14" s="1">
-        <v>-197.570000</v>
+        <v>-197.57</v>
       </c>
       <c r="O14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
         <v>49010.507609</v>
       </c>
       <c r="Q14" s="1">
-        <v>13.614030</v>
+        <v>13.61403</v>
       </c>
       <c r="R14" s="1">
-        <v>1313.950000</v>
+        <v>1313.95</v>
       </c>
       <c r="S14" s="1">
-        <v>-181.189000</v>
+        <v>-181.18899999999999</v>
       </c>
       <c r="T14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U14" s="1">
-        <v>49021.342689</v>
+        <v>49021.342688999997</v>
       </c>
       <c r="V14" s="1">
-        <v>13.617040</v>
+        <v>13.617039999999999</v>
       </c>
       <c r="W14" s="1">
-        <v>1328.150000</v>
+        <v>1328.15</v>
       </c>
       <c r="X14" s="1">
-        <v>-168.764000</v>
+        <v>-168.76400000000001</v>
       </c>
       <c r="Y14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z14" s="1">
-        <v>49031.859362</v>
+        <v>49031.859362000003</v>
       </c>
       <c r="AA14" s="1">
         <v>13.619961</v>
       </c>
       <c r="AB14" s="1">
-        <v>1346.140000</v>
+        <v>1346.14</v>
       </c>
       <c r="AC14" s="1">
-        <v>-167.617000</v>
+        <v>-167.61699999999999</v>
       </c>
       <c r="AD14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE14" s="1">
-        <v>49042.717284</v>
+        <v>49042.717283999998</v>
       </c>
       <c r="AF14" s="1">
-        <v>13.622977</v>
+        <v>13.622977000000001</v>
       </c>
       <c r="AG14" s="1">
-        <v>1359.330000</v>
+        <v>1359.33</v>
       </c>
       <c r="AH14" s="1">
-        <v>-177.723000</v>
+        <v>-177.72300000000001</v>
       </c>
       <c r="AI14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ14" s="1">
         <v>49053.217589</v>
       </c>
       <c r="AK14" s="1">
-        <v>13.625894</v>
+        <v>13.625894000000001</v>
       </c>
       <c r="AL14" s="1">
-        <v>1380.200000</v>
+        <v>1380.2</v>
       </c>
       <c r="AM14" s="1">
-        <v>-207.795000</v>
+        <v>-207.79499999999999</v>
       </c>
       <c r="AN14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO14" s="1">
-        <v>49063.966919</v>
+        <v>49063.966918999999</v>
       </c>
       <c r="AP14" s="1">
-        <v>13.628880</v>
+        <v>13.628880000000001</v>
       </c>
       <c r="AQ14" s="1">
-        <v>1402.060000</v>
+        <v>1402.06</v>
       </c>
       <c r="AR14" s="1">
-        <v>-251.667000</v>
+        <v>-251.667</v>
       </c>
       <c r="AS14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT14" s="1">
-        <v>49075.006873</v>
+        <v>49075.006872999998</v>
       </c>
       <c r="AU14" s="1">
-        <v>13.631946</v>
+        <v>13.631945999999999</v>
       </c>
       <c r="AV14" s="1">
-        <v>1426.750000</v>
+        <v>1426.75</v>
       </c>
       <c r="AW14" s="1">
-        <v>-311.582000</v>
+        <v>-311.58199999999999</v>
       </c>
       <c r="AX14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY14" s="1">
-        <v>49086.047788</v>
+        <v>49086.047788000003</v>
       </c>
       <c r="AZ14" s="1">
-        <v>13.635013</v>
+        <v>13.635013000000001</v>
       </c>
       <c r="BA14" s="1">
-        <v>1446.120000</v>
+        <v>1446.12</v>
       </c>
       <c r="BB14" s="1">
-        <v>-363.473000</v>
+        <v>-363.47300000000001</v>
       </c>
       <c r="BC14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD14" s="1">
-        <v>49097.366989</v>
+        <v>49097.366989000002</v>
       </c>
       <c r="BE14" s="1">
         <v>13.638157</v>
       </c>
       <c r="BF14" s="1">
-        <v>1531.670000</v>
+        <v>1531.67</v>
       </c>
       <c r="BG14" s="1">
-        <v>-610.744000</v>
+        <v>-610.74400000000003</v>
       </c>
       <c r="BH14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI14" s="1">
-        <v>49108.270541</v>
+        <v>49108.270540999998</v>
       </c>
       <c r="BJ14" s="1">
-        <v>13.641186</v>
+        <v>13.641185999999999</v>
       </c>
       <c r="BK14" s="1">
-        <v>1686.130000</v>
+        <v>1686.13</v>
       </c>
       <c r="BL14" s="1">
-        <v>-1053.340000</v>
+        <v>-1053.3399999999999</v>
       </c>
       <c r="BM14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN14" s="1">
-        <v>49119.337981</v>
+        <v>49119.337980999997</v>
       </c>
       <c r="BO14" s="1">
         <v>13.644261</v>
       </c>
       <c r="BP14" s="1">
-        <v>1980.140000</v>
+        <v>1980.14</v>
       </c>
       <c r="BQ14" s="1">
-        <v>-1819.630000</v>
+        <v>-1819.63</v>
       </c>
       <c r="BR14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS14" s="1">
-        <v>49130.110880</v>
+        <v>49130.11088</v>
       </c>
       <c r="BT14" s="1">
-        <v>13.647253</v>
+        <v>13.647252999999999</v>
       </c>
       <c r="BU14" s="1">
-        <v>2368.850000</v>
+        <v>2368.85</v>
       </c>
       <c r="BV14" s="1">
-        <v>-2705.680000</v>
+        <v>-2705.68</v>
       </c>
       <c r="BW14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX14" s="1">
         <v>49140.959875</v>
       </c>
       <c r="BY14" s="1">
-        <v>13.650267</v>
+        <v>13.650266999999999</v>
       </c>
       <c r="BZ14" s="1">
-        <v>2849.160000</v>
+        <v>2849.16</v>
       </c>
       <c r="CA14" s="1">
-        <v>-3667.520000</v>
+        <v>-3667.52</v>
       </c>
       <c r="CB14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC14" s="1">
-        <v>49153.075651</v>
+        <v>49153.075650999999</v>
       </c>
       <c r="CD14" s="1">
         <v>13.653632</v>
       </c>
       <c r="CE14" s="1">
-        <v>4255.970000</v>
+        <v>4255.97</v>
       </c>
       <c r="CF14" s="1">
-        <v>-5987.680000</v>
+        <v>-5987.68</v>
       </c>
       <c r="CG14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:85">
       <c r="A15" s="1">
         <v>48979.450697</v>
       </c>
       <c r="B15" s="1">
-        <v>13.605403</v>
+        <v>13.605403000000001</v>
       </c>
       <c r="C15" s="1">
-        <v>1239.210000</v>
+        <v>1239.21</v>
       </c>
       <c r="D15" s="1">
-        <v>-288.121000</v>
+        <v>-288.12099999999998</v>
       </c>
       <c r="E15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F15" s="1">
-        <v>48989.538254</v>
+        <v>48989.538253999999</v>
       </c>
       <c r="G15" s="1">
         <v>13.608205</v>
       </c>
       <c r="H15" s="1">
-        <v>1263.900000</v>
+        <v>1263.9000000000001</v>
       </c>
       <c r="I15" s="1">
-        <v>-251.981000</v>
+        <v>-251.98099999999999</v>
       </c>
       <c r="J15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K15" s="1">
         <v>49000.003309</v>
@@ -3852,677 +4268,677 @@
         <v>13.611112</v>
       </c>
       <c r="M15" s="1">
-        <v>1301.310000</v>
+        <v>1301.31</v>
       </c>
       <c r="N15" s="1">
-        <v>-197.378000</v>
+        <v>-197.37799999999999</v>
       </c>
       <c r="O15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P15" s="1">
-        <v>49010.858750</v>
+        <v>49010.858749999999</v>
       </c>
       <c r="Q15" s="1">
         <v>13.614127</v>
       </c>
       <c r="R15" s="1">
-        <v>1313.980000</v>
+        <v>1313.98</v>
       </c>
       <c r="S15" s="1">
-        <v>-181.039000</v>
+        <v>-181.03899999999999</v>
       </c>
       <c r="T15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U15" s="1">
-        <v>49022.034112</v>
+        <v>49022.034112000001</v>
       </c>
       <c r="V15" s="1">
         <v>13.617232</v>
       </c>
       <c r="W15" s="1">
-        <v>1328.250000</v>
+        <v>1328.25</v>
       </c>
       <c r="X15" s="1">
-        <v>-168.926000</v>
+        <v>-168.92599999999999</v>
       </c>
       <c r="Y15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z15" s="1">
-        <v>49032.553798</v>
+        <v>49032.553798000001</v>
       </c>
       <c r="AA15" s="1">
-        <v>13.620154</v>
+        <v>13.620153999999999</v>
       </c>
       <c r="AB15" s="1">
-        <v>1346.070000</v>
+        <v>1346.07</v>
       </c>
       <c r="AC15" s="1">
-        <v>-167.540000</v>
+        <v>-167.54</v>
       </c>
       <c r="AD15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE15" s="1">
-        <v>49043.055556</v>
+        <v>49043.055555999999</v>
       </c>
       <c r="AF15" s="1">
-        <v>13.623071</v>
+        <v>13.623070999999999</v>
       </c>
       <c r="AG15" s="1">
-        <v>1359.290000</v>
+        <v>1359.29</v>
       </c>
       <c r="AH15" s="1">
-        <v>-177.682000</v>
+        <v>-177.68199999999999</v>
       </c>
       <c r="AI15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ15" s="1">
         <v>49053.568261</v>
       </c>
       <c r="AK15" s="1">
-        <v>13.625991</v>
+        <v>13.625991000000001</v>
       </c>
       <c r="AL15" s="1">
-        <v>1380.210000</v>
+        <v>1380.21</v>
       </c>
       <c r="AM15" s="1">
-        <v>-207.794000</v>
+        <v>-207.79400000000001</v>
       </c>
       <c r="AN15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO15" s="1">
-        <v>49064.324039</v>
+        <v>49064.324038999999</v>
       </c>
       <c r="AP15" s="1">
-        <v>13.628979</v>
+        <v>13.628978999999999</v>
       </c>
       <c r="AQ15" s="1">
-        <v>1402.060000</v>
+        <v>1402.06</v>
       </c>
       <c r="AR15" s="1">
-        <v>-251.661000</v>
+        <v>-251.661</v>
       </c>
       <c r="AS15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT15" s="1">
-        <v>49075.680445</v>
+        <v>49075.680444999998</v>
       </c>
       <c r="AU15" s="1">
         <v>13.632133</v>
       </c>
       <c r="AV15" s="1">
-        <v>1426.720000</v>
+        <v>1426.72</v>
       </c>
       <c r="AW15" s="1">
-        <v>-311.527000</v>
+        <v>-311.52699999999999</v>
       </c>
       <c r="AX15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY15" s="1">
-        <v>49086.704490</v>
+        <v>49086.704489999996</v>
       </c>
       <c r="AZ15" s="1">
-        <v>13.635196</v>
+        <v>13.635196000000001</v>
       </c>
       <c r="BA15" s="1">
-        <v>1446.100000</v>
+        <v>1446.1</v>
       </c>
       <c r="BB15" s="1">
-        <v>-363.485000</v>
+        <v>-363.48500000000001</v>
       </c>
       <c r="BC15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD15" s="1">
         <v>49097.804956</v>
       </c>
       <c r="BE15" s="1">
-        <v>13.638279</v>
+        <v>13.638279000000001</v>
       </c>
       <c r="BF15" s="1">
-        <v>1531.710000</v>
+        <v>1531.71</v>
       </c>
       <c r="BG15" s="1">
-        <v>-610.753000</v>
+        <v>-610.75300000000004</v>
       </c>
       <c r="BH15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI15" s="1">
-        <v>49108.646013</v>
+        <v>49108.646012999998</v>
       </c>
       <c r="BJ15" s="1">
-        <v>13.641291</v>
+        <v>13.641291000000001</v>
       </c>
       <c r="BK15" s="1">
-        <v>1686.120000</v>
+        <v>1686.12</v>
       </c>
       <c r="BL15" s="1">
-        <v>-1053.350000</v>
+        <v>-1053.3499999999999</v>
       </c>
       <c r="BM15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN15" s="1">
-        <v>49119.773296</v>
+        <v>49119.773295999999</v>
       </c>
       <c r="BO15" s="1">
-        <v>13.644381</v>
+        <v>13.644380999999999</v>
       </c>
       <c r="BP15" s="1">
-        <v>1980.160000</v>
+        <v>1980.16</v>
       </c>
       <c r="BQ15" s="1">
-        <v>-1819.700000</v>
+        <v>-1819.7</v>
       </c>
       <c r="BR15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS15" s="1">
-        <v>49130.537968</v>
+        <v>49130.537967999997</v>
       </c>
       <c r="BT15" s="1">
-        <v>13.647372</v>
+        <v>13.647372000000001</v>
       </c>
       <c r="BU15" s="1">
-        <v>2369.210000</v>
+        <v>2369.21</v>
       </c>
       <c r="BV15" s="1">
-        <v>-2704.660000</v>
+        <v>-2704.66</v>
       </c>
       <c r="BW15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX15" s="1">
-        <v>49141.414705</v>
+        <v>49141.414705000003</v>
       </c>
       <c r="BY15" s="1">
-        <v>13.650393</v>
+        <v>13.650392999999999</v>
       </c>
       <c r="BZ15" s="1">
-        <v>2849.140000</v>
+        <v>2849.14</v>
       </c>
       <c r="CA15" s="1">
-        <v>-3666.960000</v>
+        <v>-3666.96</v>
       </c>
       <c r="CB15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC15" s="1">
-        <v>49153.615299</v>
+        <v>49153.615298999997</v>
       </c>
       <c r="CD15" s="1">
         <v>13.653782</v>
       </c>
       <c r="CE15" s="1">
-        <v>4274.810000</v>
+        <v>4274.8100000000004</v>
       </c>
       <c r="CF15" s="1">
-        <v>-5992.390000</v>
+        <v>-5992.39</v>
       </c>
       <c r="CG15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:85">
       <c r="A16" s="1">
-        <v>48979.793816</v>
+        <v>48979.793815999998</v>
       </c>
       <c r="B16" s="1">
-        <v>13.605498</v>
+        <v>13.605498000000001</v>
       </c>
       <c r="C16" s="1">
-        <v>1239.200000</v>
+        <v>1239.2</v>
       </c>
       <c r="D16" s="1">
-        <v>-288.607000</v>
+        <v>-288.60700000000003</v>
       </c>
       <c r="E16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F16" s="1">
         <v>48989.881449</v>
       </c>
       <c r="G16" s="1">
-        <v>13.608300</v>
+        <v>13.6083</v>
       </c>
       <c r="H16" s="1">
-        <v>1263.640000</v>
+        <v>1263.6400000000001</v>
       </c>
       <c r="I16" s="1">
-        <v>-252.920000</v>
+        <v>-252.92</v>
       </c>
       <c r="J16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K16" s="1">
-        <v>49000.352027</v>
+        <v>49000.352027000001</v>
       </c>
       <c r="L16" s="1">
-        <v>13.611209</v>
+        <v>13.611209000000001</v>
       </c>
       <c r="M16" s="1">
-        <v>1301.340000</v>
+        <v>1301.3399999999999</v>
       </c>
       <c r="N16" s="1">
-        <v>-197.580000</v>
+        <v>-197.58</v>
       </c>
       <c r="O16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P16" s="1">
         <v>49011.553645</v>
       </c>
       <c r="Q16" s="1">
-        <v>13.614320</v>
+        <v>13.614319999999999</v>
       </c>
       <c r="R16" s="1">
-        <v>1314.020000</v>
+        <v>1314.02</v>
       </c>
       <c r="S16" s="1">
-        <v>-181.046000</v>
+        <v>-181.04599999999999</v>
       </c>
       <c r="T16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U16" s="1">
-        <v>49022.376873</v>
+        <v>49022.376873000001</v>
       </c>
       <c r="V16" s="1">
         <v>13.617327</v>
       </c>
       <c r="W16" s="1">
-        <v>1328.020000</v>
+        <v>1328.02</v>
       </c>
       <c r="X16" s="1">
-        <v>-169.052000</v>
+        <v>-169.05199999999999</v>
       </c>
       <c r="Y16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z16" s="1">
-        <v>49032.900500</v>
+        <v>49032.900500000003</v>
       </c>
       <c r="AA16" s="1">
-        <v>13.620250</v>
+        <v>13.62025</v>
       </c>
       <c r="AB16" s="1">
-        <v>1346.120000</v>
+        <v>1346.12</v>
       </c>
       <c r="AC16" s="1">
-        <v>-167.552000</v>
+        <v>-167.55199999999999</v>
       </c>
       <c r="AD16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE16" s="1">
-        <v>49043.402259</v>
+        <v>49043.402259000002</v>
       </c>
       <c r="AF16" s="1">
         <v>13.623167</v>
       </c>
       <c r="AG16" s="1">
-        <v>1359.370000</v>
+        <v>1359.37</v>
       </c>
       <c r="AH16" s="1">
-        <v>-177.640000</v>
+        <v>-177.64</v>
       </c>
       <c r="AI16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ16" s="1">
-        <v>49054.226454</v>
+        <v>49054.226454000003</v>
       </c>
       <c r="AK16" s="1">
-        <v>13.626174</v>
+        <v>13.626174000000001</v>
       </c>
       <c r="AL16" s="1">
-        <v>1380.250000</v>
+        <v>1380.25</v>
       </c>
       <c r="AM16" s="1">
-        <v>-207.811000</v>
+        <v>-207.81100000000001</v>
       </c>
       <c r="AN16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO16" s="1">
-        <v>49064.990166</v>
+        <v>49064.990166000003</v>
       </c>
       <c r="AP16" s="1">
-        <v>13.629164</v>
+        <v>13.629163999999999</v>
       </c>
       <c r="AQ16" s="1">
-        <v>1402.040000</v>
+        <v>1402.04</v>
       </c>
       <c r="AR16" s="1">
-        <v>-251.675000</v>
+        <v>-251.67500000000001</v>
       </c>
       <c r="AS16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT16" s="1">
-        <v>49076.098536</v>
+        <v>49076.098535999998</v>
       </c>
       <c r="AU16" s="1">
-        <v>13.632250</v>
+        <v>13.632250000000001</v>
       </c>
       <c r="AV16" s="1">
-        <v>1426.740000</v>
+        <v>1426.74</v>
       </c>
       <c r="AW16" s="1">
-        <v>-311.554000</v>
+        <v>-311.55399999999997</v>
       </c>
       <c r="AX16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY16" s="1">
-        <v>49087.132041</v>
+        <v>49087.132040999997</v>
       </c>
       <c r="AZ16" s="1">
-        <v>13.635314</v>
+        <v>13.635313999999999</v>
       </c>
       <c r="BA16" s="1">
-        <v>1446.090000</v>
+        <v>1446.09</v>
       </c>
       <c r="BB16" s="1">
-        <v>-363.500000</v>
+        <v>-363.5</v>
       </c>
       <c r="BC16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD16" s="1">
-        <v>49098.164554</v>
+        <v>49098.164554000003</v>
       </c>
       <c r="BE16" s="1">
         <v>13.638379</v>
       </c>
       <c r="BF16" s="1">
-        <v>1531.650000</v>
+        <v>1531.65</v>
       </c>
       <c r="BG16" s="1">
-        <v>-610.722000</v>
+        <v>-610.72199999999998</v>
       </c>
       <c r="BH16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI16" s="1">
         <v>49109.021493</v>
       </c>
       <c r="BJ16" s="1">
-        <v>13.641395</v>
+        <v>13.641394999999999</v>
       </c>
       <c r="BK16" s="1">
-        <v>1686.090000</v>
+        <v>1686.09</v>
       </c>
       <c r="BL16" s="1">
-        <v>-1053.350000</v>
+        <v>-1053.3499999999999</v>
       </c>
       <c r="BM16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN16" s="1">
-        <v>49120.160142</v>
+        <v>49120.160142000001</v>
       </c>
       <c r="BO16" s="1">
         <v>13.644489</v>
       </c>
       <c r="BP16" s="1">
-        <v>1980.110000</v>
+        <v>1980.11</v>
       </c>
       <c r="BQ16" s="1">
-        <v>-1819.540000</v>
+        <v>-1819.54</v>
       </c>
       <c r="BR16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS16" s="1">
-        <v>49130.956560</v>
+        <v>49130.956559999999</v>
       </c>
       <c r="BT16" s="1">
-        <v>13.647488</v>
+        <v>13.647487999999999</v>
       </c>
       <c r="BU16" s="1">
-        <v>2369.570000</v>
+        <v>2369.5700000000002</v>
       </c>
       <c r="BV16" s="1">
-        <v>-2703.780000</v>
+        <v>-2703.78</v>
       </c>
       <c r="BW16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX16" s="1">
-        <v>49141.861637</v>
+        <v>49141.861637000002</v>
       </c>
       <c r="BY16" s="1">
-        <v>13.650517</v>
+        <v>13.650517000000001</v>
       </c>
       <c r="BZ16" s="1">
-        <v>2849.340000</v>
+        <v>2849.34</v>
       </c>
       <c r="CA16" s="1">
-        <v>-3667.670000</v>
+        <v>-3667.67</v>
       </c>
       <c r="CB16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC16" s="1">
-        <v>49154.153954</v>
+        <v>49154.153954000001</v>
       </c>
       <c r="CD16" s="1">
-        <v>13.653932</v>
+        <v>13.653931999999999</v>
       </c>
       <c r="CE16" s="1">
-        <v>4258.120000</v>
+        <v>4258.12</v>
       </c>
       <c r="CF16" s="1">
-        <v>-5975.680000</v>
+        <v>-5975.68</v>
       </c>
       <c r="CG16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:85">
       <c r="A17" s="1">
-        <v>48980.132088</v>
+        <v>48980.132087999998</v>
       </c>
       <c r="B17" s="1">
         <v>13.605592</v>
       </c>
       <c r="C17" s="1">
-        <v>1239.030000</v>
+        <v>1239.03</v>
       </c>
       <c r="D17" s="1">
-        <v>-288.451000</v>
+        <v>-288.45100000000002</v>
       </c>
       <c r="E17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F17" s="1">
-        <v>48990.570889</v>
+        <v>48990.570889000002</v>
       </c>
       <c r="G17" s="1">
         <v>13.608492</v>
       </c>
       <c r="H17" s="1">
-        <v>1264.280000</v>
+        <v>1264.28</v>
       </c>
       <c r="I17" s="1">
-        <v>-251.964000</v>
+        <v>-251.964</v>
       </c>
       <c r="J17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K17" s="1">
-        <v>49001.045899</v>
+        <v>49001.045898999997</v>
       </c>
       <c r="L17" s="1">
         <v>13.611402</v>
       </c>
       <c r="M17" s="1">
-        <v>1301.440000</v>
+        <v>1301.44</v>
       </c>
       <c r="N17" s="1">
-        <v>-197.770000</v>
+        <v>-197.77</v>
       </c>
       <c r="O17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P17" s="1">
         <v>49011.904316</v>
       </c>
       <c r="Q17" s="1">
-        <v>13.614418</v>
+        <v>13.614418000000001</v>
       </c>
       <c r="R17" s="1">
-        <v>1314.080000</v>
+        <v>1314.08</v>
       </c>
       <c r="S17" s="1">
-        <v>-181.087000</v>
+        <v>-181.08699999999999</v>
       </c>
       <c r="T17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U17" s="1">
-        <v>49022.727055</v>
+        <v>49022.727055000003</v>
       </c>
       <c r="V17" s="1">
         <v>13.617424</v>
       </c>
       <c r="W17" s="1">
-        <v>1328.130000</v>
+        <v>1328.13</v>
       </c>
       <c r="X17" s="1">
-        <v>-168.895000</v>
+        <v>-168.89500000000001</v>
       </c>
       <c r="Y17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z17" s="1">
-        <v>49033.252656</v>
+        <v>49033.252655999997</v>
       </c>
       <c r="AA17" s="1">
         <v>13.620348</v>
       </c>
       <c r="AB17" s="1">
-        <v>1346.130000</v>
+        <v>1346.13</v>
       </c>
       <c r="AC17" s="1">
-        <v>-167.711000</v>
+        <v>-167.71100000000001</v>
       </c>
       <c r="AD17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE17" s="1">
-        <v>49044.062470</v>
+        <v>49044.062469999997</v>
       </c>
       <c r="AF17" s="1">
         <v>13.623351</v>
       </c>
       <c r="AG17" s="1">
-        <v>1359.300000</v>
+        <v>1359.3</v>
       </c>
       <c r="AH17" s="1">
-        <v>-177.749000</v>
+        <v>-177.749</v>
       </c>
       <c r="AI17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ17" s="1">
-        <v>49054.612868</v>
+        <v>49054.612867999997</v>
       </c>
       <c r="AK17" s="1">
-        <v>13.626281</v>
+        <v>13.626281000000001</v>
       </c>
       <c r="AL17" s="1">
-        <v>1380.220000</v>
+        <v>1380.22</v>
       </c>
       <c r="AM17" s="1">
-        <v>-207.799000</v>
+        <v>-207.79900000000001</v>
       </c>
       <c r="AN17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO17" s="1">
-        <v>49065.433559</v>
+        <v>49065.433558999997</v>
       </c>
       <c r="AP17" s="1">
         <v>13.629287</v>
       </c>
       <c r="AQ17" s="1">
-        <v>1402.030000</v>
+        <v>1402.03</v>
       </c>
       <c r="AR17" s="1">
-        <v>-251.686000</v>
+        <v>-251.68600000000001</v>
       </c>
       <c r="AS17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT17" s="1">
-        <v>49076.465608</v>
+        <v>49076.465607999999</v>
       </c>
       <c r="AU17" s="1">
-        <v>13.632352</v>
+        <v>13.632351999999999</v>
       </c>
       <c r="AV17" s="1">
-        <v>1426.710000</v>
+        <v>1426.71</v>
       </c>
       <c r="AW17" s="1">
-        <v>-311.562000</v>
+        <v>-311.56200000000001</v>
       </c>
       <c r="AX17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY17" s="1">
-        <v>49087.504538</v>
+        <v>49087.504538000001</v>
       </c>
       <c r="AZ17" s="1">
         <v>13.635418</v>
       </c>
       <c r="BA17" s="1">
-        <v>1446.070000</v>
+        <v>1446.07</v>
       </c>
       <c r="BB17" s="1">
-        <v>-363.480000</v>
+        <v>-363.48</v>
       </c>
       <c r="BC17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD17" s="1">
-        <v>49098.528123</v>
+        <v>49098.528122999996</v>
       </c>
       <c r="BE17" s="1">
-        <v>13.638480</v>
+        <v>13.638479999999999</v>
       </c>
       <c r="BF17" s="1">
-        <v>1531.660000</v>
+        <v>1531.66</v>
       </c>
       <c r="BG17" s="1">
-        <v>-610.710000</v>
+        <v>-610.71</v>
       </c>
       <c r="BH17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI17" s="1">
-        <v>49109.444601</v>
+        <v>49109.444601000003</v>
       </c>
       <c r="BJ17" s="1">
-        <v>13.641512</v>
+        <v>13.641512000000001</v>
       </c>
       <c r="BK17" s="1">
-        <v>1686.090000</v>
+        <v>1686.09</v>
       </c>
       <c r="BL17" s="1">
-        <v>-1053.320000</v>
+        <v>-1053.32</v>
       </c>
       <c r="BM17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN17" s="1">
         <v>49120.580253</v>
@@ -4531,407 +4947,407 @@
         <v>13.644606</v>
       </c>
       <c r="BP17" s="1">
-        <v>1980.040000</v>
+        <v>1980.04</v>
       </c>
       <c r="BQ17" s="1">
-        <v>-1819.660000</v>
+        <v>-1819.66</v>
       </c>
       <c r="BR17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS17" s="1">
-        <v>49131.367743</v>
+        <v>49131.367743000003</v>
       </c>
       <c r="BT17" s="1">
-        <v>13.647602</v>
+        <v>13.647601999999999</v>
       </c>
       <c r="BU17" s="1">
-        <v>2369.690000</v>
+        <v>2369.69</v>
       </c>
       <c r="BV17" s="1">
-        <v>-2702.590000</v>
+        <v>-2702.59</v>
       </c>
       <c r="BW17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX17" s="1">
-        <v>49142.295600</v>
+        <v>49142.295599999998</v>
       </c>
       <c r="BY17" s="1">
-        <v>13.650638</v>
+        <v>13.650638000000001</v>
       </c>
       <c r="BZ17" s="1">
-        <v>2849.870000</v>
+        <v>2849.87</v>
       </c>
       <c r="CA17" s="1">
-        <v>-3667.140000</v>
+        <v>-3667.14</v>
       </c>
       <c r="CB17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC17" s="1">
-        <v>49154.693601</v>
+        <v>49154.693600999999</v>
       </c>
       <c r="CD17" s="1">
-        <v>13.654082</v>
+        <v>13.654082000000001</v>
       </c>
       <c r="CE17" s="1">
-        <v>4265.940000</v>
+        <v>4265.9399999999996</v>
       </c>
       <c r="CF17" s="1">
-        <v>-5995.710000</v>
+        <v>-5995.71</v>
       </c>
       <c r="CG17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:85">
       <c r="A18" s="1">
-        <v>48980.818069</v>
+        <v>48980.818069000001</v>
       </c>
       <c r="B18" s="1">
-        <v>13.605783</v>
+        <v>13.605783000000001</v>
       </c>
       <c r="C18" s="1">
-        <v>1239.130000</v>
+        <v>1239.1300000000001</v>
       </c>
       <c r="D18" s="1">
-        <v>-288.192000</v>
+        <v>-288.19200000000001</v>
       </c>
       <c r="E18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F18" s="1">
-        <v>48990.914123</v>
+        <v>48990.914123000002</v>
       </c>
       <c r="G18" s="1">
         <v>13.608587</v>
       </c>
       <c r="H18" s="1">
-        <v>1263.690000</v>
+        <v>1263.69</v>
       </c>
       <c r="I18" s="1">
-        <v>-252.492000</v>
+        <v>-252.49199999999999</v>
       </c>
       <c r="J18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K18" s="1">
-        <v>49001.398554</v>
+        <v>49001.398553999999</v>
       </c>
       <c r="L18" s="1">
-        <v>13.611500</v>
+        <v>13.611499999999999</v>
       </c>
       <c r="M18" s="1">
-        <v>1301.250000</v>
+        <v>1301.25</v>
       </c>
       <c r="N18" s="1">
-        <v>-197.295000</v>
+        <v>-197.29499999999999</v>
       </c>
       <c r="O18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P18" s="1">
-        <v>49012.253996</v>
+        <v>49012.253995999999</v>
       </c>
       <c r="Q18" s="1">
-        <v>13.614515</v>
+        <v>13.614515000000001</v>
       </c>
       <c r="R18" s="1">
-        <v>1314.040000</v>
+        <v>1314.04</v>
       </c>
       <c r="S18" s="1">
-        <v>-181.166000</v>
+        <v>-181.166</v>
       </c>
       <c r="T18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U18" s="1">
-        <v>49023.379261</v>
+        <v>49023.379261000002</v>
       </c>
       <c r="V18" s="1">
-        <v>13.617605</v>
+        <v>13.617604999999999</v>
       </c>
       <c r="W18" s="1">
-        <v>1328.050000</v>
+        <v>1328.05</v>
       </c>
       <c r="X18" s="1">
-        <v>-168.867000</v>
+        <v>-168.86699999999999</v>
       </c>
       <c r="Y18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z18" s="1">
-        <v>49033.928188</v>
+        <v>49033.928187999998</v>
       </c>
       <c r="AA18" s="1">
         <v>13.620536</v>
       </c>
       <c r="AB18" s="1">
-        <v>1345.990000</v>
+        <v>1345.99</v>
       </c>
       <c r="AC18" s="1">
-        <v>-167.667000</v>
+        <v>-167.667</v>
       </c>
       <c r="AD18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE18" s="1">
-        <v>49044.435936</v>
+        <v>49044.435936000002</v>
       </c>
       <c r="AF18" s="1">
-        <v>13.623454</v>
+        <v>13.623454000000001</v>
       </c>
       <c r="AG18" s="1">
-        <v>1359.480000</v>
+        <v>1359.48</v>
       </c>
       <c r="AH18" s="1">
-        <v>-177.596000</v>
+        <v>-177.596</v>
       </c>
       <c r="AI18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ18" s="1">
-        <v>49054.965523</v>
+        <v>49054.965522999999</v>
       </c>
       <c r="AK18" s="1">
         <v>13.626379</v>
       </c>
       <c r="AL18" s="1">
-        <v>1380.210000</v>
+        <v>1380.21</v>
       </c>
       <c r="AM18" s="1">
-        <v>-207.797000</v>
+        <v>-207.797</v>
       </c>
       <c r="AN18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO18" s="1">
-        <v>49065.795639</v>
+        <v>49065.795639000004</v>
       </c>
       <c r="AP18" s="1">
-        <v>13.629388</v>
+        <v>13.629388000000001</v>
       </c>
       <c r="AQ18" s="1">
-        <v>1402.030000</v>
+        <v>1402.03</v>
       </c>
       <c r="AR18" s="1">
-        <v>-251.658000</v>
+        <v>-251.65799999999999</v>
       </c>
       <c r="AS18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT18" s="1">
-        <v>49076.830630</v>
+        <v>49076.830629999997</v>
       </c>
       <c r="AU18" s="1">
         <v>13.632453</v>
       </c>
       <c r="AV18" s="1">
-        <v>1426.750000</v>
+        <v>1426.75</v>
       </c>
       <c r="AW18" s="1">
-        <v>-311.528000</v>
+        <v>-311.52800000000002</v>
       </c>
       <c r="AX18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY18" s="1">
-        <v>49087.928616</v>
+        <v>49087.928615999997</v>
       </c>
       <c r="AZ18" s="1">
         <v>13.635536</v>
       </c>
       <c r="BA18" s="1">
-        <v>1446.080000</v>
+        <v>1446.08</v>
       </c>
       <c r="BB18" s="1">
-        <v>-363.504000</v>
+        <v>-363.50400000000002</v>
       </c>
       <c r="BC18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD18" s="1">
-        <v>49098.950746</v>
+        <v>49098.950746000002</v>
       </c>
       <c r="BE18" s="1">
-        <v>13.638597</v>
+        <v>13.638597000000001</v>
       </c>
       <c r="BF18" s="1">
-        <v>1531.660000</v>
+        <v>1531.66</v>
       </c>
       <c r="BG18" s="1">
-        <v>-610.720000</v>
+        <v>-610.72</v>
       </c>
       <c r="BH18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI18" s="1">
-        <v>49109.799708</v>
+        <v>49109.799707999999</v>
       </c>
       <c r="BJ18" s="1">
-        <v>13.641611</v>
+        <v>13.641610999999999</v>
       </c>
       <c r="BK18" s="1">
-        <v>1686.070000</v>
+        <v>1686.07</v>
       </c>
       <c r="BL18" s="1">
-        <v>-1053.280000</v>
+        <v>-1053.28</v>
       </c>
       <c r="BM18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN18" s="1">
-        <v>49121.005356</v>
+        <v>49121.005356000001</v>
       </c>
       <c r="BO18" s="1">
         <v>13.644724</v>
       </c>
       <c r="BP18" s="1">
-        <v>1980.120000</v>
+        <v>1980.12</v>
       </c>
       <c r="BQ18" s="1">
-        <v>-1819.540000</v>
+        <v>-1819.54</v>
       </c>
       <c r="BR18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS18" s="1">
-        <v>49131.783391</v>
+        <v>49131.783390999997</v>
       </c>
       <c r="BT18" s="1">
-        <v>13.647718</v>
+        <v>13.647717999999999</v>
       </c>
       <c r="BU18" s="1">
-        <v>2369.060000</v>
+        <v>2369.06</v>
       </c>
       <c r="BV18" s="1">
-        <v>-2701.900000</v>
+        <v>-2701.9</v>
       </c>
       <c r="BW18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX18" s="1">
-        <v>49142.751919</v>
+        <v>49142.751919000002</v>
       </c>
       <c r="BY18" s="1">
-        <v>13.650764</v>
+        <v>13.650764000000001</v>
       </c>
       <c r="BZ18" s="1">
-        <v>2849.360000</v>
+        <v>2849.36</v>
       </c>
       <c r="CA18" s="1">
-        <v>-3666.960000</v>
+        <v>-3666.96</v>
       </c>
       <c r="CB18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC18" s="1">
-        <v>49155.234893</v>
+        <v>49155.234893000001</v>
       </c>
       <c r="CD18" s="1">
         <v>13.654232</v>
       </c>
       <c r="CE18" s="1">
-        <v>4268.940000</v>
+        <v>4268.9399999999996</v>
       </c>
       <c r="CF18" s="1">
-        <v>-5976.610000</v>
+        <v>-5976.61</v>
       </c>
       <c r="CG18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:85">
       <c r="A19" s="1">
-        <v>48981.161781</v>
+        <v>48981.161781000003</v>
       </c>
       <c r="B19" s="1">
-        <v>13.605878</v>
+        <v>13.605878000000001</v>
       </c>
       <c r="C19" s="1">
-        <v>1238.850000</v>
+        <v>1238.8499999999999</v>
       </c>
       <c r="D19" s="1">
-        <v>-288.049000</v>
+        <v>-288.04899999999998</v>
       </c>
       <c r="E19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F19" s="1">
-        <v>48991.258846</v>
+        <v>48991.258845999997</v>
       </c>
       <c r="G19" s="1">
-        <v>13.608683</v>
+        <v>13.608682999999999</v>
       </c>
       <c r="H19" s="1">
-        <v>1263.700000</v>
+        <v>1263.7</v>
       </c>
       <c r="I19" s="1">
-        <v>-252.338000</v>
+        <v>-252.33799999999999</v>
       </c>
       <c r="J19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K19" s="1">
         <v>49001.742779</v>
       </c>
       <c r="L19" s="1">
-        <v>13.611595</v>
+        <v>13.611594999999999</v>
       </c>
       <c r="M19" s="1">
-        <v>1300.980000</v>
+        <v>1300.98</v>
       </c>
       <c r="N19" s="1">
-        <v>-197.572000</v>
+        <v>-197.572</v>
       </c>
       <c r="O19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P19" s="1">
-        <v>49012.897540</v>
+        <v>49012.897539999998</v>
       </c>
       <c r="Q19" s="1">
         <v>13.614694</v>
       </c>
       <c r="R19" s="1">
-        <v>1313.980000</v>
+        <v>1313.98</v>
       </c>
       <c r="S19" s="1">
-        <v>-181.161000</v>
+        <v>-181.161</v>
       </c>
       <c r="T19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U19" s="1">
-        <v>49023.757213</v>
+        <v>49023.757212999997</v>
       </c>
       <c r="V19" s="1">
-        <v>13.617710</v>
+        <v>13.617710000000001</v>
       </c>
       <c r="W19" s="1">
-        <v>1328.200000</v>
+        <v>1328.2</v>
       </c>
       <c r="X19" s="1">
-        <v>-168.763000</v>
+        <v>-168.76300000000001</v>
       </c>
       <c r="Y19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z19" s="1">
-        <v>49034.301664</v>
+        <v>49034.301663999999</v>
       </c>
       <c r="AA19" s="1">
-        <v>13.620639</v>
+        <v>13.620639000000001</v>
       </c>
       <c r="AB19" s="1">
-        <v>1346.080000</v>
+        <v>1346.08</v>
       </c>
       <c r="AC19" s="1">
-        <v>-167.525000</v>
+        <v>-167.52500000000001</v>
       </c>
       <c r="AD19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE19" s="1">
         <v>49044.786129</v>
@@ -4940,180 +5356,180 @@
         <v>13.623552</v>
       </c>
       <c r="AG19" s="1">
-        <v>1359.400000</v>
+        <v>1359.4</v>
       </c>
       <c r="AH19" s="1">
-        <v>-177.464000</v>
+        <v>-177.464</v>
       </c>
       <c r="AI19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ19" s="1">
-        <v>49055.311235</v>
+        <v>49055.311235000001</v>
       </c>
       <c r="AK19" s="1">
-        <v>13.626475</v>
+        <v>13.626474999999999</v>
       </c>
       <c r="AL19" s="1">
-        <v>1380.200000</v>
+        <v>1380.2</v>
       </c>
       <c r="AM19" s="1">
-        <v>-207.836000</v>
+        <v>-207.83600000000001</v>
       </c>
       <c r="AN19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO19" s="1">
-        <v>49066.154255</v>
+        <v>49066.154255000001</v>
       </c>
       <c r="AP19" s="1">
-        <v>13.629487</v>
+        <v>13.629486999999999</v>
       </c>
       <c r="AQ19" s="1">
-        <v>1402.030000</v>
+        <v>1402.03</v>
       </c>
       <c r="AR19" s="1">
-        <v>-251.680000</v>
+        <v>-251.68</v>
       </c>
       <c r="AS19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT19" s="1">
-        <v>49077.263142</v>
+        <v>49077.263142000003</v>
       </c>
       <c r="AU19" s="1">
-        <v>13.632573</v>
+        <v>13.632573000000001</v>
       </c>
       <c r="AV19" s="1">
-        <v>1426.710000</v>
+        <v>1426.71</v>
       </c>
       <c r="AW19" s="1">
-        <v>-311.531000</v>
+        <v>-311.53100000000001</v>
       </c>
       <c r="AX19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY19" s="1">
-        <v>49088.264935</v>
+        <v>49088.264934999999</v>
       </c>
       <c r="AZ19" s="1">
         <v>13.635629</v>
       </c>
       <c r="BA19" s="1">
-        <v>1446.080000</v>
+        <v>1446.08</v>
       </c>
       <c r="BB19" s="1">
-        <v>-363.533000</v>
+        <v>-363.53300000000002</v>
       </c>
       <c r="BC19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD19" s="1">
-        <v>49099.248810</v>
+        <v>49099.248809999997</v>
       </c>
       <c r="BE19" s="1">
-        <v>13.638680</v>
+        <v>13.638680000000001</v>
       </c>
       <c r="BF19" s="1">
-        <v>1531.710000</v>
+        <v>1531.71</v>
       </c>
       <c r="BG19" s="1">
-        <v>-610.716000</v>
+        <v>-610.71600000000001</v>
       </c>
       <c r="BH19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI19" s="1">
-        <v>49110.178650</v>
+        <v>49110.178650000002</v>
       </c>
       <c r="BJ19" s="1">
-        <v>13.641716</v>
+        <v>13.641716000000001</v>
       </c>
       <c r="BK19" s="1">
-        <v>1686.140000</v>
+        <v>1686.14</v>
       </c>
       <c r="BL19" s="1">
-        <v>-1053.280000</v>
+        <v>-1053.28</v>
       </c>
       <c r="BM19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN19" s="1">
-        <v>49121.404605</v>
+        <v>49121.404605000003</v>
       </c>
       <c r="BO19" s="1">
         <v>13.644835</v>
       </c>
       <c r="BP19" s="1">
-        <v>1980.130000</v>
+        <v>1980.13</v>
       </c>
       <c r="BQ19" s="1">
-        <v>-1819.660000</v>
+        <v>-1819.66</v>
       </c>
       <c r="BR19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS19" s="1">
-        <v>49132.199533</v>
+        <v>49132.199532999999</v>
       </c>
       <c r="BT19" s="1">
         <v>13.647833</v>
       </c>
       <c r="BU19" s="1">
-        <v>2368.140000</v>
+        <v>2368.14</v>
       </c>
       <c r="BV19" s="1">
-        <v>-2701.350000</v>
+        <v>-2701.35</v>
       </c>
       <c r="BW19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX19" s="1">
-        <v>49143.201296</v>
+        <v>49143.201295999999</v>
       </c>
       <c r="BY19" s="1">
-        <v>13.650889</v>
+        <v>13.650888999999999</v>
       </c>
       <c r="BZ19" s="1">
-        <v>2849.510000</v>
+        <v>2849.51</v>
       </c>
       <c r="CA19" s="1">
-        <v>-3667.190000</v>
+        <v>-3667.19</v>
       </c>
       <c r="CB19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC19" s="1">
-        <v>49155.773886</v>
+        <v>49155.773886000003</v>
       </c>
       <c r="CD19" s="1">
         <v>13.654382</v>
       </c>
       <c r="CE19" s="1">
-        <v>4255.290000</v>
+        <v>4255.29</v>
       </c>
       <c r="CF19" s="1">
-        <v>-5988.460000</v>
+        <v>-5988.46</v>
       </c>
       <c r="CG19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:85">
       <c r="A20" s="1">
-        <v>48981.502533</v>
+        <v>48981.502532999999</v>
       </c>
       <c r="B20" s="1">
-        <v>13.605973</v>
+        <v>13.605973000000001</v>
       </c>
       <c r="C20" s="1">
-        <v>1239.090000</v>
+        <v>1239.0899999999999</v>
       </c>
       <c r="D20" s="1">
-        <v>-288.505000</v>
+        <v>-288.505</v>
       </c>
       <c r="E20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F20" s="1">
         <v>48991.913558</v>
@@ -5122,28 +5538,28 @@
         <v>13.608865</v>
       </c>
       <c r="H20" s="1">
-        <v>1264.720000</v>
+        <v>1264.72</v>
       </c>
       <c r="I20" s="1">
-        <v>-252.085000</v>
+        <v>-252.08500000000001</v>
       </c>
       <c r="J20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K20" s="1">
-        <v>49002.392079</v>
+        <v>49002.392078999997</v>
       </c>
       <c r="L20" s="1">
-        <v>13.611776</v>
+        <v>13.611776000000001</v>
       </c>
       <c r="M20" s="1">
-        <v>1301.310000</v>
+        <v>1301.31</v>
       </c>
       <c r="N20" s="1">
-        <v>-197.461000</v>
+        <v>-197.46100000000001</v>
       </c>
       <c r="O20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P20" s="1">
         <v>49013.298572</v>
@@ -5152,88 +5568,88 @@
         <v>13.614805</v>
       </c>
       <c r="R20" s="1">
-        <v>1313.960000</v>
+        <v>1313.96</v>
       </c>
       <c r="S20" s="1">
-        <v>-181.071000</v>
+        <v>-181.071</v>
       </c>
       <c r="T20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U20" s="1">
-        <v>49024.100976</v>
+        <v>49024.100976000002</v>
       </c>
       <c r="V20" s="1">
         <v>13.617806</v>
       </c>
       <c r="W20" s="1">
-        <v>1327.870000</v>
+        <v>1327.87</v>
       </c>
       <c r="X20" s="1">
-        <v>-169.018000</v>
+        <v>-169.018</v>
       </c>
       <c r="Y20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z20" s="1">
-        <v>49034.648398</v>
+        <v>49034.648397999998</v>
       </c>
       <c r="AA20" s="1">
-        <v>13.620736</v>
+        <v>13.620736000000001</v>
       </c>
       <c r="AB20" s="1">
-        <v>1346.040000</v>
+        <v>1346.04</v>
       </c>
       <c r="AC20" s="1">
-        <v>-167.688000</v>
+        <v>-167.68799999999999</v>
       </c>
       <c r="AD20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE20" s="1">
-        <v>49045.129826</v>
+        <v>49045.129825999997</v>
       </c>
       <c r="AF20" s="1">
         <v>13.623647</v>
       </c>
       <c r="AG20" s="1">
-        <v>1359.330000</v>
+        <v>1359.33</v>
       </c>
       <c r="AH20" s="1">
-        <v>-177.589000</v>
+        <v>-177.589</v>
       </c>
       <c r="AI20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ20" s="1">
-        <v>49055.746690</v>
+        <v>49055.74669</v>
       </c>
       <c r="AK20" s="1">
-        <v>13.626596</v>
+        <v>13.626595999999999</v>
       </c>
       <c r="AL20" s="1">
-        <v>1380.210000</v>
+        <v>1380.21</v>
       </c>
       <c r="AM20" s="1">
-        <v>-207.824000</v>
+        <v>-207.82400000000001</v>
       </c>
       <c r="AN20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO20" s="1">
-        <v>49066.569396</v>
+        <v>49066.569395999999</v>
       </c>
       <c r="AP20" s="1">
-        <v>13.629603</v>
+        <v>13.629602999999999</v>
       </c>
       <c r="AQ20" s="1">
-        <v>1402.030000</v>
+        <v>1402.03</v>
       </c>
       <c r="AR20" s="1">
-        <v>-251.692000</v>
+        <v>-251.69200000000001</v>
       </c>
       <c r="AS20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT20" s="1">
         <v>49077.559254</v>
@@ -5242,28 +5658,28 @@
         <v>13.632655</v>
       </c>
       <c r="AV20" s="1">
-        <v>1426.730000</v>
+        <v>1426.73</v>
       </c>
       <c r="AW20" s="1">
-        <v>-311.544000</v>
+        <v>-311.54399999999998</v>
       </c>
       <c r="AX20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY20" s="1">
-        <v>49088.621033</v>
+        <v>49088.621033000003</v>
       </c>
       <c r="AZ20" s="1">
         <v>13.635728</v>
       </c>
       <c r="BA20" s="1">
-        <v>1446.080000</v>
+        <v>1446.08</v>
       </c>
       <c r="BB20" s="1">
-        <v>-363.571000</v>
+        <v>-363.57100000000003</v>
       </c>
       <c r="BC20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD20" s="1">
         <v>49099.611416</v>
@@ -5272,43 +5688,43 @@
         <v>13.638781</v>
       </c>
       <c r="BF20" s="1">
-        <v>1531.670000</v>
+        <v>1531.67</v>
       </c>
       <c r="BG20" s="1">
-        <v>-610.694000</v>
+        <v>-610.69399999999996</v>
       </c>
       <c r="BH20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI20" s="1">
-        <v>49110.551642</v>
+        <v>49110.551641999999</v>
       </c>
       <c r="BJ20" s="1">
-        <v>13.641820</v>
+        <v>13.641819999999999</v>
       </c>
       <c r="BK20" s="1">
-        <v>1686.080000</v>
+        <v>1686.08</v>
       </c>
       <c r="BL20" s="1">
-        <v>-1053.270000</v>
+        <v>-1053.27</v>
       </c>
       <c r="BM20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN20" s="1">
-        <v>49121.823724</v>
+        <v>49121.823724000002</v>
       </c>
       <c r="BO20" s="1">
-        <v>13.644951</v>
+        <v>13.644951000000001</v>
       </c>
       <c r="BP20" s="1">
-        <v>1980.090000</v>
+        <v>1980.09</v>
       </c>
       <c r="BQ20" s="1">
-        <v>-1819.550000</v>
+        <v>-1819.55</v>
       </c>
       <c r="BR20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS20" s="1">
         <v>49132.633533</v>
@@ -5317,270 +5733,270 @@
         <v>13.647954</v>
       </c>
       <c r="BU20" s="1">
-        <v>2367.470000</v>
+        <v>2367.4699999999998</v>
       </c>
       <c r="BV20" s="1">
-        <v>-2700.350000</v>
+        <v>-2700.35</v>
       </c>
       <c r="BW20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX20" s="1">
         <v>49143.622894</v>
       </c>
       <c r="BY20" s="1">
-        <v>13.651006</v>
+        <v>13.651006000000001</v>
       </c>
       <c r="BZ20" s="1">
-        <v>2849.930000</v>
+        <v>2849.93</v>
       </c>
       <c r="CA20" s="1">
-        <v>-3666.840000</v>
+        <v>-3666.84</v>
       </c>
       <c r="CB20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC20" s="1">
-        <v>49156.314031</v>
+        <v>49156.314031000002</v>
       </c>
       <c r="CD20" s="1">
         <v>13.654532</v>
       </c>
       <c r="CE20" s="1">
-        <v>4276.160000</v>
+        <v>4276.16</v>
       </c>
       <c r="CF20" s="1">
-        <v>-5989.290000</v>
+        <v>-5989.29</v>
       </c>
       <c r="CG20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:85">
       <c r="A21" s="1">
-        <v>48982.154771</v>
+        <v>48982.154771000001</v>
       </c>
       <c r="B21" s="1">
         <v>13.606154</v>
       </c>
       <c r="C21" s="1">
-        <v>1239.020000</v>
+        <v>1239.02</v>
       </c>
       <c r="D21" s="1">
-        <v>-288.427000</v>
+        <v>-288.42700000000002</v>
       </c>
       <c r="E21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F21" s="1">
-        <v>48992.296967</v>
+        <v>48992.296967000002</v>
       </c>
       <c r="G21" s="1">
         <v>13.608971</v>
       </c>
       <c r="H21" s="1">
-        <v>1263.570000</v>
+        <v>1263.57</v>
       </c>
       <c r="I21" s="1">
-        <v>-252.282000</v>
+        <v>-252.28200000000001</v>
       </c>
       <c r="J21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K21" s="1">
-        <v>49002.778430</v>
+        <v>49002.778429999998</v>
       </c>
       <c r="L21" s="1">
-        <v>13.611883</v>
+        <v>13.611883000000001</v>
       </c>
       <c r="M21" s="1">
-        <v>1301.150000</v>
+        <v>1301.1500000000001</v>
       </c>
       <c r="N21" s="1">
-        <v>-197.542000</v>
+        <v>-197.542</v>
       </c>
       <c r="O21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P21" s="1">
-        <v>49013.648251</v>
+        <v>49013.648250999999</v>
       </c>
       <c r="Q21" s="1">
-        <v>13.614902</v>
+        <v>13.614902000000001</v>
       </c>
       <c r="R21" s="1">
-        <v>1314.020000</v>
+        <v>1314.02</v>
       </c>
       <c r="S21" s="1">
-        <v>-181.086000</v>
+        <v>-181.08600000000001</v>
       </c>
       <c r="T21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U21" s="1">
-        <v>49024.445676</v>
+        <v>49024.445676000003</v>
       </c>
       <c r="V21" s="1">
-        <v>13.617902</v>
+        <v>13.617902000000001</v>
       </c>
       <c r="W21" s="1">
-        <v>1328.060000</v>
+        <v>1328.06</v>
       </c>
       <c r="X21" s="1">
-        <v>-168.865000</v>
+        <v>-168.86500000000001</v>
       </c>
       <c r="Y21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z21" s="1">
         <v>49034.997055</v>
       </c>
       <c r="AA21" s="1">
-        <v>13.620833</v>
+        <v>13.620832999999999</v>
       </c>
       <c r="AB21" s="1">
-        <v>1346.080000</v>
+        <v>1346.08</v>
       </c>
       <c r="AC21" s="1">
-        <v>-167.598000</v>
+        <v>-167.59800000000001</v>
       </c>
       <c r="AD21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE21" s="1">
-        <v>49045.554400</v>
+        <v>49045.554400000001</v>
       </c>
       <c r="AF21" s="1">
-        <v>13.623765</v>
+        <v>13.623765000000001</v>
       </c>
       <c r="AG21" s="1">
-        <v>1359.320000</v>
+        <v>1359.32</v>
       </c>
       <c r="AH21" s="1">
-        <v>-177.618000</v>
+        <v>-177.61799999999999</v>
       </c>
       <c r="AI21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ21" s="1">
-        <v>49056.018002</v>
+        <v>49056.018001999997</v>
       </c>
       <c r="AK21" s="1">
-        <v>13.626672</v>
+        <v>13.626671999999999</v>
       </c>
       <c r="AL21" s="1">
-        <v>1380.210000</v>
+        <v>1380.21</v>
       </c>
       <c r="AM21" s="1">
-        <v>-207.797000</v>
+        <v>-207.797</v>
       </c>
       <c r="AN21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO21" s="1">
-        <v>49066.876948</v>
+        <v>49066.876947999997</v>
       </c>
       <c r="AP21" s="1">
         <v>13.629688</v>
       </c>
       <c r="AQ21" s="1">
-        <v>1402.010000</v>
+        <v>1402.01</v>
       </c>
       <c r="AR21" s="1">
-        <v>-251.680000</v>
+        <v>-251.68</v>
       </c>
       <c r="AS21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT21" s="1">
         <v>49077.922821</v>
       </c>
       <c r="AU21" s="1">
-        <v>13.632756</v>
+        <v>13.632756000000001</v>
       </c>
       <c r="AV21" s="1">
-        <v>1426.730000</v>
+        <v>1426.73</v>
       </c>
       <c r="AW21" s="1">
-        <v>-311.544000</v>
+        <v>-311.54399999999998</v>
       </c>
       <c r="AX21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY21" s="1">
-        <v>49088.978188</v>
+        <v>49088.978188000001</v>
       </c>
       <c r="AZ21" s="1">
-        <v>13.635827</v>
+        <v>13.635827000000001</v>
       </c>
       <c r="BA21" s="1">
-        <v>1446.060000</v>
+        <v>1446.06</v>
       </c>
       <c r="BB21" s="1">
-        <v>-363.539000</v>
+        <v>-363.53899999999999</v>
       </c>
       <c r="BC21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD21" s="1">
-        <v>49099.972472</v>
+        <v>49099.972472000001</v>
       </c>
       <c r="BE21" s="1">
         <v>13.638881</v>
       </c>
       <c r="BF21" s="1">
-        <v>1531.730000</v>
+        <v>1531.73</v>
       </c>
       <c r="BG21" s="1">
-        <v>-610.694000</v>
+        <v>-610.69399999999996</v>
       </c>
       <c r="BH21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI21" s="1">
-        <v>49111.299609</v>
+        <v>49111.299609000002</v>
       </c>
       <c r="BJ21" s="1">
         <v>13.642028</v>
       </c>
       <c r="BK21" s="1">
-        <v>1686.060000</v>
+        <v>1686.06</v>
       </c>
       <c r="BL21" s="1">
-        <v>-1053.240000</v>
+        <v>-1053.24</v>
       </c>
       <c r="BM21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN21" s="1">
-        <v>49122.222010</v>
+        <v>49122.222009999998</v>
       </c>
       <c r="BO21" s="1">
-        <v>13.645062</v>
+        <v>13.645061999999999</v>
       </c>
       <c r="BP21" s="1">
-        <v>1979.960000</v>
+        <v>1979.96</v>
       </c>
       <c r="BQ21" s="1">
-        <v>-1819.490000</v>
+        <v>-1819.49</v>
       </c>
       <c r="BR21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS21" s="1">
         <v>49133.066045</v>
       </c>
       <c r="BT21" s="1">
-        <v>13.648074</v>
+        <v>13.648073999999999</v>
       </c>
       <c r="BU21" s="1">
-        <v>2366.470000</v>
+        <v>2366.4699999999998</v>
       </c>
       <c r="BV21" s="1">
-        <v>-2700.470000</v>
+        <v>-2700.47</v>
       </c>
       <c r="BW21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX21" s="1">
         <v>49144.043501</v>
@@ -5589,105 +6005,105 @@
         <v>13.651123</v>
       </c>
       <c r="BZ21" s="1">
-        <v>2849.460000</v>
+        <v>2849.46</v>
       </c>
       <c r="CA21" s="1">
-        <v>-3667.020000</v>
+        <v>-3667.02</v>
       </c>
       <c r="CB21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC21" s="1">
-        <v>49157.149293</v>
+        <v>49157.149293000002</v>
       </c>
       <c r="CD21" s="1">
         <v>13.654764</v>
       </c>
       <c r="CE21" s="1">
-        <v>4255.740000</v>
+        <v>4255.74</v>
       </c>
       <c r="CF21" s="1">
-        <v>-5994.840000</v>
+        <v>-5994.84</v>
       </c>
       <c r="CG21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:85">
       <c r="A22" s="1">
-        <v>48982.523795</v>
+        <v>48982.523795000001</v>
       </c>
       <c r="B22" s="1">
-        <v>13.606257</v>
+        <v>13.606256999999999</v>
       </c>
       <c r="C22" s="1">
-        <v>1239.090000</v>
+        <v>1239.0899999999999</v>
       </c>
       <c r="D22" s="1">
-        <v>-288.309000</v>
+        <v>-288.30900000000003</v>
       </c>
       <c r="E22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F22" s="1">
-        <v>48992.641685</v>
+        <v>48992.641685000002</v>
       </c>
       <c r="G22" s="1">
         <v>13.609067</v>
       </c>
       <c r="H22" s="1">
-        <v>1263.390000</v>
+        <v>1263.3900000000001</v>
       </c>
       <c r="I22" s="1">
-        <v>-252.146000</v>
+        <v>-252.14599999999999</v>
       </c>
       <c r="J22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K22" s="1">
-        <v>49003.124136</v>
+        <v>49003.124135999999</v>
       </c>
       <c r="L22" s="1">
         <v>13.611979</v>
       </c>
       <c r="M22" s="1">
-        <v>1301.320000</v>
+        <v>1301.32</v>
       </c>
       <c r="N22" s="1">
-        <v>-197.431000</v>
+        <v>-197.43100000000001</v>
       </c>
       <c r="O22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P22" s="1">
-        <v>49013.996939</v>
+        <v>49013.996938999997</v>
       </c>
       <c r="Q22" s="1">
-        <v>13.614999</v>
+        <v>13.614998999999999</v>
       </c>
       <c r="R22" s="1">
-        <v>1314.030000</v>
+        <v>1314.03</v>
       </c>
       <c r="S22" s="1">
-        <v>-181.113000</v>
+        <v>-181.113</v>
       </c>
       <c r="T22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U22" s="1">
-        <v>49024.867260</v>
+        <v>49024.867259999999</v>
       </c>
       <c r="V22" s="1">
         <v>13.618019</v>
       </c>
       <c r="W22" s="1">
-        <v>1328.240000</v>
+        <v>1328.24</v>
       </c>
       <c r="X22" s="1">
-        <v>-168.840000</v>
+        <v>-168.84</v>
       </c>
       <c r="Y22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z22" s="1">
         <v>49035.430559</v>
@@ -5696,163 +6112,163 @@
         <v>13.620953</v>
       </c>
       <c r="AB22" s="1">
-        <v>1346.090000</v>
+        <v>1346.09</v>
       </c>
       <c r="AC22" s="1">
-        <v>-167.673000</v>
+        <v>-167.673</v>
       </c>
       <c r="AD22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE22" s="1">
-        <v>49045.828688</v>
+        <v>49045.828688000001</v>
       </c>
       <c r="AF22" s="1">
-        <v>13.623841</v>
+        <v>13.623841000000001</v>
       </c>
       <c r="AG22" s="1">
-        <v>1359.340000</v>
+        <v>1359.34</v>
       </c>
       <c r="AH22" s="1">
-        <v>-177.554000</v>
+        <v>-177.554</v>
       </c>
       <c r="AI22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ22" s="1">
-        <v>49056.368178</v>
+        <v>49056.368177999997</v>
       </c>
       <c r="AK22" s="1">
-        <v>13.626769</v>
+        <v>13.626768999999999</v>
       </c>
       <c r="AL22" s="1">
-        <v>1380.220000</v>
+        <v>1380.22</v>
       </c>
       <c r="AM22" s="1">
-        <v>-207.777000</v>
+        <v>-207.77699999999999</v>
       </c>
       <c r="AN22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO22" s="1">
-        <v>49067.234563</v>
+        <v>49067.234562999998</v>
       </c>
       <c r="AP22" s="1">
         <v>13.629787</v>
       </c>
       <c r="AQ22" s="1">
-        <v>1402.070000</v>
+        <v>1402.07</v>
       </c>
       <c r="AR22" s="1">
-        <v>-251.665000</v>
+        <v>-251.66499999999999</v>
       </c>
       <c r="AS22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT22" s="1">
-        <v>49078.288868</v>
+        <v>49078.288868000003</v>
       </c>
       <c r="AU22" s="1">
-        <v>13.632858</v>
+        <v>13.632858000000001</v>
       </c>
       <c r="AV22" s="1">
-        <v>1426.740000</v>
+        <v>1426.74</v>
       </c>
       <c r="AW22" s="1">
-        <v>-311.520000</v>
+        <v>-311.52</v>
       </c>
       <c r="AX22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY22" s="1">
-        <v>49089.694375</v>
+        <v>49089.694374999999</v>
       </c>
       <c r="AZ22" s="1">
-        <v>13.636026</v>
+        <v>13.636025999999999</v>
       </c>
       <c r="BA22" s="1">
-        <v>1446.080000</v>
+        <v>1446.08</v>
       </c>
       <c r="BB22" s="1">
-        <v>-363.536000</v>
+        <v>-363.536</v>
       </c>
       <c r="BC22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD22" s="1">
-        <v>49100.692696</v>
+        <v>49100.692695999998</v>
       </c>
       <c r="BE22" s="1">
-        <v>13.639081</v>
+        <v>13.639080999999999</v>
       </c>
       <c r="BF22" s="1">
-        <v>1531.660000</v>
+        <v>1531.66</v>
       </c>
       <c r="BG22" s="1">
-        <v>-610.701000</v>
+        <v>-610.70100000000002</v>
       </c>
       <c r="BH22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI22" s="1">
-        <v>49111.676570</v>
+        <v>49111.676570000003</v>
       </c>
       <c r="BJ22" s="1">
         <v>13.642132</v>
       </c>
       <c r="BK22" s="1">
-        <v>1686.130000</v>
+        <v>1686.13</v>
       </c>
       <c r="BL22" s="1">
-        <v>-1053.230000</v>
+        <v>-1053.23</v>
       </c>
       <c r="BM22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN22" s="1">
-        <v>49122.642620</v>
+        <v>49122.642619999999</v>
       </c>
       <c r="BO22" s="1">
-        <v>13.645179</v>
+        <v>13.645179000000001</v>
       </c>
       <c r="BP22" s="1">
-        <v>1980.070000</v>
+        <v>1980.07</v>
       </c>
       <c r="BQ22" s="1">
-        <v>-1819.540000</v>
+        <v>-1819.54</v>
       </c>
       <c r="BR22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS22" s="1">
-        <v>49133.476733</v>
+        <v>49133.476733000003</v>
       </c>
       <c r="BT22" s="1">
-        <v>13.648188</v>
+        <v>13.648187999999999</v>
       </c>
       <c r="BU22" s="1">
-        <v>2365.450000</v>
+        <v>2365.4499999999998</v>
       </c>
       <c r="BV22" s="1">
-        <v>-2700.570000</v>
+        <v>-2700.57</v>
       </c>
       <c r="BW22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX22" s="1">
-        <v>49144.779565</v>
+        <v>49144.779564999997</v>
       </c>
       <c r="BY22" s="1">
-        <v>13.651328</v>
+        <v>13.651327999999999</v>
       </c>
       <c r="BZ22" s="1">
-        <v>2849.160000</v>
+        <v>2849.16</v>
       </c>
       <c r="CA22" s="1">
-        <v>-3667.100000</v>
+        <v>-3667.1</v>
       </c>
       <c r="CB22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC22" s="1">
         <v>49157.392365</v>
@@ -5861,180 +6277,180 @@
         <v>13.654831</v>
       </c>
       <c r="CE22" s="1">
-        <v>4260.530000</v>
+        <v>4260.53</v>
       </c>
       <c r="CF22" s="1">
-        <v>-5996.960000</v>
+        <v>-5996.96</v>
       </c>
       <c r="CG22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:85">
       <c r="A23" s="1">
-        <v>48982.871491</v>
+        <v>48982.871490999998</v>
       </c>
       <c r="B23" s="1">
         <v>13.606353</v>
       </c>
       <c r="C23" s="1">
-        <v>1239.020000</v>
+        <v>1239.02</v>
       </c>
       <c r="D23" s="1">
-        <v>-288.279000</v>
+        <v>-288.279</v>
       </c>
       <c r="E23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F23" s="1">
-        <v>48992.985909</v>
+        <v>48992.985909000003</v>
       </c>
       <c r="G23" s="1">
-        <v>13.609163</v>
+        <v>13.609163000000001</v>
       </c>
       <c r="H23" s="1">
-        <v>1263.900000</v>
+        <v>1263.9000000000001</v>
       </c>
       <c r="I23" s="1">
-        <v>-252.321000</v>
+        <v>-252.321</v>
       </c>
       <c r="J23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K23" s="1">
-        <v>49003.757031</v>
+        <v>49003.757031000001</v>
       </c>
       <c r="L23" s="1">
         <v>13.612155</v>
       </c>
       <c r="M23" s="1">
-        <v>1301.210000</v>
+        <v>1301.21</v>
       </c>
       <c r="N23" s="1">
-        <v>-197.362000</v>
+        <v>-197.36199999999999</v>
       </c>
       <c r="O23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P23" s="1">
-        <v>49014.419033</v>
+        <v>49014.419032999998</v>
       </c>
       <c r="Q23" s="1">
         <v>13.615116</v>
       </c>
       <c r="R23" s="1">
-        <v>1314.050000</v>
+        <v>1314.05</v>
       </c>
       <c r="S23" s="1">
-        <v>-181.138000</v>
+        <v>-181.13800000000001</v>
       </c>
       <c r="T23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U23" s="1">
-        <v>49025.138571</v>
+        <v>49025.138571000003</v>
       </c>
       <c r="V23" s="1">
-        <v>13.618094</v>
+        <v>13.618093999999999</v>
       </c>
       <c r="W23" s="1">
-        <v>1328.020000</v>
+        <v>1328.02</v>
       </c>
       <c r="X23" s="1">
-        <v>-168.547000</v>
+        <v>-168.547</v>
       </c>
       <c r="Y23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z23" s="1">
-        <v>49035.705837</v>
+        <v>49035.705837000001</v>
       </c>
       <c r="AA23" s="1">
         <v>13.621029</v>
       </c>
       <c r="AB23" s="1">
-        <v>1346.120000</v>
+        <v>1346.12</v>
       </c>
       <c r="AC23" s="1">
-        <v>-167.485000</v>
+        <v>-167.48500000000001</v>
       </c>
       <c r="AD23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE23" s="1">
-        <v>49046.170464</v>
+        <v>49046.170464000003</v>
       </c>
       <c r="AF23" s="1">
         <v>13.623936</v>
       </c>
       <c r="AG23" s="1">
-        <v>1359.360000</v>
+        <v>1359.36</v>
       </c>
       <c r="AH23" s="1">
-        <v>-177.707000</v>
+        <v>-177.70699999999999</v>
       </c>
       <c r="AI23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ23" s="1">
-        <v>49056.716897</v>
+        <v>49056.716896999998</v>
       </c>
       <c r="AK23" s="1">
         <v>13.626866</v>
       </c>
       <c r="AL23" s="1">
-        <v>1380.230000</v>
+        <v>1380.23</v>
       </c>
       <c r="AM23" s="1">
-        <v>-207.779000</v>
+        <v>-207.779</v>
       </c>
       <c r="AN23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO23" s="1">
-        <v>49067.596612</v>
+        <v>49067.596612000001</v>
       </c>
       <c r="AP23" s="1">
-        <v>13.629888</v>
+        <v>13.629887999999999</v>
       </c>
       <c r="AQ23" s="1">
-        <v>1401.990000</v>
+        <v>1401.99</v>
       </c>
       <c r="AR23" s="1">
-        <v>-251.653000</v>
+        <v>-251.65299999999999</v>
       </c>
       <c r="AS23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT23" s="1">
-        <v>49079.016996</v>
+        <v>49079.016995999998</v>
       </c>
       <c r="AU23" s="1">
-        <v>13.633060</v>
+        <v>13.63306</v>
       </c>
       <c r="AV23" s="1">
-        <v>1426.750000</v>
+        <v>1426.75</v>
       </c>
       <c r="AW23" s="1">
-        <v>-311.530000</v>
+        <v>-311.52999999999997</v>
       </c>
       <c r="AX23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY23" s="1">
-        <v>49090.054965</v>
+        <v>49090.054965000003</v>
       </c>
       <c r="AZ23" s="1">
-        <v>13.636126</v>
+        <v>13.636126000000001</v>
       </c>
       <c r="BA23" s="1">
-        <v>1446.080000</v>
+        <v>1446.08</v>
       </c>
       <c r="BB23" s="1">
-        <v>-363.486000</v>
+        <v>-363.48599999999999</v>
       </c>
       <c r="BC23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD23" s="1">
         <v>49101.054248</v>
@@ -6043,437 +6459,437 @@
         <v>13.639182</v>
       </c>
       <c r="BF23" s="1">
-        <v>1531.690000</v>
+        <v>1531.69</v>
       </c>
       <c r="BG23" s="1">
-        <v>-610.713000</v>
+        <v>-610.71299999999997</v>
       </c>
       <c r="BH23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI23" s="1">
-        <v>49112.052041</v>
+        <v>49112.052041000003</v>
       </c>
       <c r="BJ23" s="1">
         <v>13.642237</v>
       </c>
       <c r="BK23" s="1">
-        <v>1686.100000</v>
+        <v>1686.1</v>
       </c>
       <c r="BL23" s="1">
-        <v>-1053.270000</v>
+        <v>-1053.27</v>
       </c>
       <c r="BM23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN23" s="1">
-        <v>49123.346442</v>
+        <v>49123.346442000002</v>
       </c>
       <c r="BO23" s="1">
         <v>13.645374</v>
       </c>
       <c r="BP23" s="1">
-        <v>1980.100000</v>
+        <v>1980.1</v>
       </c>
       <c r="BQ23" s="1">
-        <v>-1819.440000</v>
+        <v>-1819.44</v>
       </c>
       <c r="BR23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS23" s="1">
-        <v>49134.223707</v>
+        <v>49134.223706999997</v>
       </c>
       <c r="BT23" s="1">
-        <v>13.648395</v>
+        <v>13.648395000000001</v>
       </c>
       <c r="BU23" s="1">
-        <v>2364.990000</v>
+        <v>2364.9899999999998</v>
       </c>
       <c r="BV23" s="1">
-        <v>-2701.540000</v>
+        <v>-2701.54</v>
       </c>
       <c r="BW23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX23" s="1">
-        <v>49144.888685</v>
+        <v>49144.888684999998</v>
       </c>
       <c r="BY23" s="1">
         <v>13.651358</v>
       </c>
       <c r="BZ23" s="1">
-        <v>2849.660000</v>
+        <v>2849.66</v>
       </c>
       <c r="CA23" s="1">
-        <v>-3667.180000</v>
+        <v>-3667.18</v>
       </c>
       <c r="CB23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC23" s="1">
-        <v>49157.909661</v>
+        <v>49157.909660999998</v>
       </c>
       <c r="CD23" s="1">
         <v>13.654975</v>
       </c>
       <c r="CE23" s="1">
-        <v>4274.950000</v>
+        <v>4274.95</v>
       </c>
       <c r="CF23" s="1">
-        <v>-5988.310000</v>
+        <v>-5988.31</v>
       </c>
       <c r="CG23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:85">
       <c r="A24" s="1">
         <v>48983.210755</v>
       </c>
       <c r="B24" s="1">
-        <v>13.606447</v>
+        <v>13.606446999999999</v>
       </c>
       <c r="C24" s="1">
-        <v>1239.100000</v>
+        <v>1239.0999999999999</v>
       </c>
       <c r="D24" s="1">
-        <v>-287.736000</v>
+        <v>-287.73599999999999</v>
       </c>
       <c r="E24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F24" s="1">
-        <v>48993.399291</v>
+        <v>48993.399291000002</v>
       </c>
       <c r="G24" s="1">
         <v>13.609278</v>
       </c>
       <c r="H24" s="1">
-        <v>1264.530000</v>
+        <v>1264.53</v>
       </c>
       <c r="I24" s="1">
-        <v>-252.863000</v>
+        <v>-252.863</v>
       </c>
       <c r="J24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K24" s="1">
-        <v>49004.161308</v>
+        <v>49004.161308000002</v>
       </c>
       <c r="L24" s="1">
-        <v>13.612267</v>
+        <v>13.612266999999999</v>
       </c>
       <c r="M24" s="1">
-        <v>1300.860000</v>
+        <v>1300.8599999999999</v>
       </c>
       <c r="N24" s="1">
-        <v>-197.419000</v>
+        <v>-197.41900000000001</v>
       </c>
       <c r="O24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P24" s="1">
-        <v>49014.694809</v>
+        <v>49014.694809000001</v>
       </c>
       <c r="Q24" s="1">
         <v>13.615193</v>
       </c>
       <c r="R24" s="1">
-        <v>1314.060000</v>
+        <v>1314.06</v>
       </c>
       <c r="S24" s="1">
-        <v>-181.190000</v>
+        <v>-181.19</v>
       </c>
       <c r="T24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U24" s="1">
-        <v>49025.483292</v>
+        <v>49025.483291999997</v>
       </c>
       <c r="V24" s="1">
-        <v>13.618190</v>
+        <v>13.61819</v>
       </c>
       <c r="W24" s="1">
-        <v>1327.930000</v>
+        <v>1327.93</v>
       </c>
       <c r="X24" s="1">
-        <v>-168.821000</v>
+        <v>-168.821</v>
       </c>
       <c r="Y24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z24" s="1">
-        <v>49036.150293</v>
+        <v>49036.150292999999</v>
       </c>
       <c r="AA24" s="1">
         <v>13.621153</v>
       </c>
       <c r="AB24" s="1">
-        <v>1346.000000</v>
+        <v>1346</v>
       </c>
       <c r="AC24" s="1">
-        <v>-167.606000</v>
+        <v>-167.60599999999999</v>
       </c>
       <c r="AD24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE24" s="1">
-        <v>49046.513168</v>
+        <v>49046.513167999998</v>
       </c>
       <c r="AF24" s="1">
         <v>13.624031</v>
       </c>
       <c r="AG24" s="1">
-        <v>1359.380000</v>
+        <v>1359.38</v>
       </c>
       <c r="AH24" s="1">
-        <v>-177.693000</v>
+        <v>-177.69300000000001</v>
       </c>
       <c r="AI24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ24" s="1">
-        <v>49057.414272</v>
+        <v>49057.414272000002</v>
       </c>
       <c r="AK24" s="1">
-        <v>13.627060</v>
+        <v>13.62706</v>
       </c>
       <c r="AL24" s="1">
-        <v>1380.200000</v>
+        <v>1380.2</v>
       </c>
       <c r="AM24" s="1">
-        <v>-207.792000</v>
+        <v>-207.792</v>
       </c>
       <c r="AN24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO24" s="1">
-        <v>49068.321266</v>
+        <v>49068.321265999999</v>
       </c>
       <c r="AP24" s="1">
         <v>13.630089</v>
       </c>
       <c r="AQ24" s="1">
-        <v>1402.040000</v>
+        <v>1402.04</v>
       </c>
       <c r="AR24" s="1">
-        <v>-251.676000</v>
+        <v>-251.67599999999999</v>
       </c>
       <c r="AS24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT24" s="1">
-        <v>49079.408428</v>
+        <v>49079.408428000002</v>
       </c>
       <c r="AU24" s="1">
-        <v>13.633169</v>
+        <v>13.633169000000001</v>
       </c>
       <c r="AV24" s="1">
-        <v>1426.700000</v>
+        <v>1426.7</v>
       </c>
       <c r="AW24" s="1">
-        <v>-311.526000</v>
+        <v>-311.52600000000001</v>
       </c>
       <c r="AX24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY24" s="1">
-        <v>49090.414069</v>
+        <v>49090.414068999999</v>
       </c>
       <c r="AZ24" s="1">
-        <v>13.636226</v>
+        <v>13.636226000000001</v>
       </c>
       <c r="BA24" s="1">
-        <v>1446.060000</v>
+        <v>1446.06</v>
       </c>
       <c r="BB24" s="1">
-        <v>-363.474000</v>
+        <v>-363.47399999999999</v>
       </c>
       <c r="BC24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD24" s="1">
-        <v>49101.413846</v>
+        <v>49101.413846000003</v>
       </c>
       <c r="BE24" s="1">
         <v>13.639282</v>
       </c>
       <c r="BF24" s="1">
-        <v>1531.670000</v>
+        <v>1531.67</v>
       </c>
       <c r="BG24" s="1">
-        <v>-610.695000</v>
+        <v>-610.69500000000005</v>
       </c>
       <c r="BH24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI24" s="1">
-        <v>49112.738692</v>
+        <v>49112.738691999999</v>
       </c>
       <c r="BJ24" s="1">
         <v>13.642427</v>
       </c>
       <c r="BK24" s="1">
-        <v>1686.090000</v>
+        <v>1686.09</v>
       </c>
       <c r="BL24" s="1">
-        <v>-1053.260000</v>
+        <v>-1053.26</v>
       </c>
       <c r="BM24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN24" s="1">
-        <v>49123.460521</v>
+        <v>49123.460521000001</v>
       </c>
       <c r="BO24" s="1">
-        <v>13.645406</v>
+        <v>13.645405999999999</v>
       </c>
       <c r="BP24" s="1">
-        <v>1980.040000</v>
+        <v>1980.04</v>
       </c>
       <c r="BQ24" s="1">
-        <v>-1819.470000</v>
+        <v>-1819.47</v>
       </c>
       <c r="BR24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS24" s="1">
-        <v>49134.334346</v>
+        <v>49134.334346000003</v>
       </c>
       <c r="BT24" s="1">
-        <v>13.648426</v>
+        <v>13.648426000000001</v>
       </c>
       <c r="BU24" s="1">
-        <v>2364.120000</v>
+        <v>2364.12</v>
       </c>
       <c r="BV24" s="1">
-        <v>-2702.020000</v>
+        <v>-2702.02</v>
       </c>
       <c r="BW24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX24" s="1">
-        <v>49145.319050</v>
+        <v>49145.319049999998</v>
       </c>
       <c r="BY24" s="1">
-        <v>13.651478</v>
+        <v>13.651477999999999</v>
       </c>
       <c r="BZ24" s="1">
-        <v>2849.800000</v>
+        <v>2849.8</v>
       </c>
       <c r="CA24" s="1">
-        <v>-3666.220000</v>
+        <v>-3666.22</v>
       </c>
       <c r="CB24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC24" s="1">
         <v>49158.427484</v>
       </c>
       <c r="CD24" s="1">
-        <v>13.655119</v>
+        <v>13.655118999999999</v>
       </c>
       <c r="CE24" s="1">
-        <v>4268.350000</v>
+        <v>4268.3500000000004</v>
       </c>
       <c r="CF24" s="1">
-        <v>-5991.820000</v>
+        <v>-5991.82</v>
       </c>
       <c r="CG24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:85">
       <c r="A25" s="1">
-        <v>48983.636855</v>
+        <v>48983.636854999997</v>
       </c>
       <c r="B25" s="1">
-        <v>13.606566</v>
+        <v>13.606566000000001</v>
       </c>
       <c r="C25" s="1">
-        <v>1239.000000</v>
+        <v>1239</v>
       </c>
       <c r="D25" s="1">
-        <v>-288.390000</v>
+        <v>-288.39</v>
       </c>
       <c r="E25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F25" s="1">
-        <v>48993.680804</v>
+        <v>48993.680804000003</v>
       </c>
       <c r="G25" s="1">
         <v>13.609356</v>
       </c>
       <c r="H25" s="1">
-        <v>1264.100000</v>
+        <v>1264.0999999999999</v>
       </c>
       <c r="I25" s="1">
-        <v>-252.186000</v>
+        <v>-252.18600000000001</v>
       </c>
       <c r="J25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K25" s="1">
-        <v>49004.507511</v>
+        <v>49004.507511000003</v>
       </c>
       <c r="L25" s="1">
         <v>13.612363</v>
       </c>
       <c r="M25" s="1">
-        <v>1301.450000</v>
+        <v>1301.45</v>
       </c>
       <c r="N25" s="1">
-        <v>-197.582000</v>
+        <v>-197.58199999999999</v>
       </c>
       <c r="O25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P25" s="1">
-        <v>49015.045512</v>
+        <v>49015.045511999997</v>
       </c>
       <c r="Q25" s="1">
-        <v>13.615290</v>
+        <v>13.61529</v>
       </c>
       <c r="R25" s="1">
-        <v>1313.990000</v>
+        <v>1313.99</v>
       </c>
       <c r="S25" s="1">
-        <v>-181.117000</v>
+        <v>-181.11699999999999</v>
       </c>
       <c r="T25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U25" s="1">
-        <v>49025.827515</v>
+        <v>49025.827514999997</v>
       </c>
       <c r="V25" s="1">
         <v>13.618285</v>
       </c>
       <c r="W25" s="1">
-        <v>1327.900000</v>
+        <v>1327.9</v>
       </c>
       <c r="X25" s="1">
-        <v>-168.931000</v>
+        <v>-168.93100000000001</v>
       </c>
       <c r="Y25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z25" s="1">
-        <v>49036.740493</v>
+        <v>49036.740492999998</v>
       </c>
       <c r="AA25" s="1">
-        <v>13.621317</v>
+        <v>13.621316999999999</v>
       </c>
       <c r="AB25" s="1">
-        <v>1345.980000</v>
+        <v>1345.98</v>
       </c>
       <c r="AC25" s="1">
-        <v>-167.693000</v>
+        <v>-167.69300000000001</v>
       </c>
       <c r="AD25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE25" s="1">
         <v>49047.200158</v>
@@ -6482,118 +6898,118 @@
         <v>13.624222</v>
       </c>
       <c r="AG25" s="1">
-        <v>1359.340000</v>
+        <v>1359.34</v>
       </c>
       <c r="AH25" s="1">
-        <v>-177.702000</v>
+        <v>-177.702</v>
       </c>
       <c r="AI25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ25" s="1">
-        <v>49057.763921</v>
+        <v>49057.763920999998</v>
       </c>
       <c r="AK25" s="1">
         <v>13.627157</v>
       </c>
       <c r="AL25" s="1">
-        <v>1380.250000</v>
+        <v>1380.25</v>
       </c>
       <c r="AM25" s="1">
-        <v>-207.790000</v>
+        <v>-207.79</v>
       </c>
       <c r="AN25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO25" s="1">
-        <v>49068.700209</v>
+        <v>49068.700209000002</v>
       </c>
       <c r="AP25" s="1">
-        <v>13.630195</v>
+        <v>13.630195000000001</v>
       </c>
       <c r="AQ25" s="1">
-        <v>1402.030000</v>
+        <v>1402.03</v>
       </c>
       <c r="AR25" s="1">
-        <v>-251.666000</v>
+        <v>-251.666</v>
       </c>
       <c r="AS25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT25" s="1">
         <v>49079.773427</v>
       </c>
       <c r="AU25" s="1">
-        <v>13.633270</v>
+        <v>13.63327</v>
       </c>
       <c r="AV25" s="1">
-        <v>1426.730000</v>
+        <v>1426.73</v>
       </c>
       <c r="AW25" s="1">
-        <v>-311.551000</v>
+        <v>-311.55099999999999</v>
       </c>
       <c r="AX25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY25" s="1">
-        <v>49091.082677</v>
+        <v>49091.082676999999</v>
       </c>
       <c r="AZ25" s="1">
         <v>13.636412</v>
       </c>
       <c r="BA25" s="1">
-        <v>1446.090000</v>
+        <v>1446.09</v>
       </c>
       <c r="BB25" s="1">
-        <v>-363.507000</v>
+        <v>-363.50700000000001</v>
       </c>
       <c r="BC25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD25" s="1">
-        <v>49102.087413</v>
+        <v>49102.087413000001</v>
       </c>
       <c r="BE25" s="1">
         <v>13.639469</v>
       </c>
       <c r="BF25" s="1">
-        <v>1531.660000</v>
+        <v>1531.66</v>
       </c>
       <c r="BG25" s="1">
-        <v>-610.675000</v>
+        <v>-610.67499999999995</v>
       </c>
       <c r="BH25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI25" s="1">
         <v>49113.177958</v>
       </c>
       <c r="BJ25" s="1">
-        <v>13.642549</v>
+        <v>13.642549000000001</v>
       </c>
       <c r="BK25" s="1">
-        <v>1686.100000</v>
+        <v>1686.1</v>
       </c>
       <c r="BL25" s="1">
-        <v>-1053.270000</v>
+        <v>-1053.27</v>
       </c>
       <c r="BM25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN25" s="1">
-        <v>49123.882120</v>
+        <v>49123.882120000002</v>
       </c>
       <c r="BO25" s="1">
-        <v>13.645523</v>
+        <v>13.645523000000001</v>
       </c>
       <c r="BP25" s="1">
-        <v>1980.080000</v>
+        <v>1980.08</v>
       </c>
       <c r="BQ25" s="1">
-        <v>-1819.430000</v>
+        <v>-1819.43</v>
       </c>
       <c r="BR25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS25" s="1">
         <v>49134.773771</v>
@@ -6602,150 +7018,150 @@
         <v>13.648548</v>
       </c>
       <c r="BU25" s="1">
-        <v>2364.210000</v>
+        <v>2364.21</v>
       </c>
       <c r="BV25" s="1">
-        <v>-2703.010000</v>
+        <v>-2703.01</v>
       </c>
       <c r="BW25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX25" s="1">
-        <v>49145.741340</v>
+        <v>49145.74134</v>
       </c>
       <c r="BY25" s="1">
         <v>13.651595</v>
       </c>
       <c r="BZ25" s="1">
-        <v>2849.330000</v>
+        <v>2849.33</v>
       </c>
       <c r="CA25" s="1">
-        <v>-3666.850000</v>
+        <v>-3666.85</v>
       </c>
       <c r="CB25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC25" s="1">
-        <v>49158.982041</v>
+        <v>49158.982041000003</v>
       </c>
       <c r="CD25" s="1">
-        <v>13.655273</v>
+        <v>13.655272999999999</v>
       </c>
       <c r="CE25" s="1">
-        <v>4259.240000</v>
+        <v>4259.24</v>
       </c>
       <c r="CF25" s="1">
-        <v>-5996.340000</v>
+        <v>-5996.34</v>
       </c>
       <c r="CG25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:85">
       <c r="A26" s="1">
         <v>48983.911107</v>
       </c>
       <c r="B26" s="1">
-        <v>13.606642</v>
+        <v>13.606642000000001</v>
       </c>
       <c r="C26" s="1">
-        <v>1239.110000</v>
+        <v>1239.1099999999999</v>
       </c>
       <c r="D26" s="1">
-        <v>-288.053000</v>
+        <v>-288.053</v>
       </c>
       <c r="E26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F26" s="1">
-        <v>48994.023540</v>
+        <v>48994.023540000002</v>
       </c>
       <c r="G26" s="1">
         <v>13.609451</v>
       </c>
       <c r="H26" s="1">
-        <v>1263.880000</v>
+        <v>1263.8800000000001</v>
       </c>
       <c r="I26" s="1">
-        <v>-251.303000</v>
+        <v>-251.303</v>
       </c>
       <c r="J26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K26" s="1">
-        <v>49004.856166</v>
+        <v>49004.856165999998</v>
       </c>
       <c r="L26" s="1">
-        <v>13.612460</v>
+        <v>13.61246</v>
       </c>
       <c r="M26" s="1">
-        <v>1301.140000</v>
+        <v>1301.1400000000001</v>
       </c>
       <c r="N26" s="1">
-        <v>-197.543000</v>
+        <v>-197.54300000000001</v>
       </c>
       <c r="O26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P26" s="1">
-        <v>49015.396184</v>
+        <v>49015.396183999997</v>
       </c>
       <c r="Q26" s="1">
-        <v>13.615388</v>
+        <v>13.615387999999999</v>
       </c>
       <c r="R26" s="1">
-        <v>1313.940000</v>
+        <v>1313.94</v>
       </c>
       <c r="S26" s="1">
-        <v>-181.074000</v>
+        <v>-181.07400000000001</v>
       </c>
       <c r="T26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U26" s="1">
-        <v>49026.512491</v>
+        <v>49026.512491000001</v>
       </c>
       <c r="V26" s="1">
-        <v>13.618476</v>
+        <v>13.618475999999999</v>
       </c>
       <c r="W26" s="1">
-        <v>1328.280000</v>
+        <v>1328.28</v>
       </c>
       <c r="X26" s="1">
-        <v>-168.809000</v>
+        <v>-168.809</v>
       </c>
       <c r="Y26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z26" s="1">
-        <v>49037.103067</v>
+        <v>49037.103066999996</v>
       </c>
       <c r="AA26" s="1">
         <v>13.621418</v>
       </c>
       <c r="AB26" s="1">
-        <v>1346.070000</v>
+        <v>1346.07</v>
       </c>
       <c r="AC26" s="1">
-        <v>-167.644000</v>
+        <v>-167.64400000000001</v>
       </c>
       <c r="AD26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE26" s="1">
-        <v>49047.543389</v>
+        <v>49047.543388999999</v>
       </c>
       <c r="AF26" s="1">
-        <v>13.624318</v>
+        <v>13.624318000000001</v>
       </c>
       <c r="AG26" s="1">
-        <v>1359.390000</v>
+        <v>1359.39</v>
       </c>
       <c r="AH26" s="1">
-        <v>-177.638000</v>
+        <v>-177.63800000000001</v>
       </c>
       <c r="AI26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ26" s="1">
         <v>49058.110212</v>
@@ -6754,13 +7170,13 @@
         <v>13.627253</v>
       </c>
       <c r="AL26" s="1">
-        <v>1380.240000</v>
+        <v>1380.24</v>
       </c>
       <c r="AM26" s="1">
-        <v>-207.805000</v>
+        <v>-207.80500000000001</v>
       </c>
       <c r="AN26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO26" s="1">
         <v>49069.061297</v>
@@ -6769,28 +7185,28 @@
         <v>13.630295</v>
       </c>
       <c r="AQ26" s="1">
-        <v>1402.040000</v>
+        <v>1402.04</v>
       </c>
       <c r="AR26" s="1">
-        <v>-251.659000</v>
+        <v>-251.65899999999999</v>
       </c>
       <c r="AS26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT26" s="1">
-        <v>49080.442498</v>
+        <v>49080.442497999997</v>
       </c>
       <c r="AU26" s="1">
-        <v>13.633456</v>
+        <v>13.633456000000001</v>
       </c>
       <c r="AV26" s="1">
-        <v>1426.720000</v>
+        <v>1426.72</v>
       </c>
       <c r="AW26" s="1">
-        <v>-311.503000</v>
+        <v>-311.50299999999999</v>
       </c>
       <c r="AX26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY26" s="1">
         <v>49091.492371</v>
@@ -6799,105 +7215,106 @@
         <v>13.636526</v>
       </c>
       <c r="BA26" s="1">
-        <v>1446.110000</v>
+        <v>1446.11</v>
       </c>
       <c r="BB26" s="1">
-        <v>-363.512000</v>
+        <v>-363.512</v>
       </c>
       <c r="BC26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD26" s="1">
-        <v>49102.524430</v>
+        <v>49102.524429999998</v>
       </c>
       <c r="BE26" s="1">
-        <v>13.639590</v>
+        <v>13.63959</v>
       </c>
       <c r="BF26" s="1">
-        <v>1531.690000</v>
+        <v>1531.69</v>
       </c>
       <c r="BG26" s="1">
-        <v>-610.656000</v>
+        <v>-610.65599999999995</v>
       </c>
       <c r="BH26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI26" s="1">
-        <v>49113.553957</v>
+        <v>49113.553956999996</v>
       </c>
       <c r="BJ26" s="1">
         <v>13.642654</v>
       </c>
       <c r="BK26" s="1">
-        <v>1686.110000</v>
+        <v>1686.11</v>
       </c>
       <c r="BL26" s="1">
-        <v>-1053.280000</v>
+        <v>-1053.28</v>
       </c>
       <c r="BM26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN26" s="1">
-        <v>49124.281897</v>
+        <v>49124.281897000001</v>
       </c>
       <c r="BO26" s="1">
-        <v>13.645634</v>
+        <v>13.645633999999999</v>
       </c>
       <c r="BP26" s="1">
-        <v>1980.220000</v>
+        <v>1980.22</v>
       </c>
       <c r="BQ26" s="1">
-        <v>-1819.360000</v>
+        <v>-1819.36</v>
       </c>
       <c r="BR26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS26" s="1">
         <v>49135.185481</v>
       </c>
       <c r="BT26" s="1">
-        <v>13.648663</v>
+        <v>13.648663000000001</v>
       </c>
       <c r="BU26" s="1">
-        <v>2364.470000</v>
+        <v>2364.4699999999998</v>
       </c>
       <c r="BV26" s="1">
-        <v>-2703.720000</v>
+        <v>-2703.72</v>
       </c>
       <c r="BW26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX26" s="1">
-        <v>49146.165387</v>
+        <v>49146.165387000001</v>
       </c>
       <c r="BY26" s="1">
-        <v>13.651713</v>
+        <v>13.651713000000001</v>
       </c>
       <c r="BZ26" s="1">
-        <v>2849.070000</v>
+        <v>2849.07</v>
       </c>
       <c r="CA26" s="1">
-        <v>-3666.900000</v>
+        <v>-3666.9</v>
       </c>
       <c r="CB26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC26" s="1">
-        <v>49159.508763</v>
+        <v>49159.508762999998</v>
       </c>
       <c r="CD26" s="1">
         <v>13.655419</v>
       </c>
       <c r="CE26" s="1">
-        <v>4273.690000</v>
+        <v>4273.6899999999996</v>
       </c>
       <c r="CF26" s="1">
-        <v>-5988.960000</v>
+        <v>-5988.96</v>
       </c>
       <c r="CG26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>